--- a/SK Table S-3.xlsx
+++ b/SK Table S-3.xlsx
@@ -602,34 +602,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.5352</v>
+        <v>41.53519174081829</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5619</v>
+        <v>21.56186048900545</v>
       </c>
       <c r="D2" t="n">
-        <v>-154.6748</v>
+        <v>-154.6748455745401</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0435</v>
+        <v>0.0434689841782319</v>
       </c>
       <c r="F2" t="n">
-        <v>0.025</v>
+        <v>0.0249551477009469</v>
       </c>
       <c r="G2" t="n">
-        <v>5.2933</v>
+        <v>5.293279626594972</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>30.5801</v>
+        <v>30.58012501194161</v>
       </c>
       <c r="J2" t="n">
-        <v>15.9281</v>
+        <v>15.92806335650835</v>
       </c>
       <c r="K2" t="n">
-        <v>-101.8</v>
+        <v>-101.805472833691</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -648,16 +648,16 @@
         <v>0.18</v>
       </c>
       <c r="P2" t="n">
-        <v>3.15</v>
+        <v>3.149959619575077</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.011894254731385</v>
       </c>
       <c r="R2" t="n">
-        <v>0.44</v>
+        <v>0.4362072875615581</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1</v>
+        <v>0.1000741948434021</v>
       </c>
       <c r="T2" t="n">
         <v>-11</v>
@@ -666,37 +666,37 @@
         <v>6</v>
       </c>
       <c r="V2" t="n">
-        <v>37.8311</v>
+        <v>37.82717919288393</v>
       </c>
       <c r="W2" t="n">
-        <v>0.375</v>
+        <v>0.3755926057298211</v>
       </c>
       <c r="X2" t="n">
-        <v>-101.7507</v>
+        <v>-101.7507159632451</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.1037</v>
+        <v>6.104129786815628</v>
       </c>
       <c r="Z2" t="n">
-        <v>-7.251</v>
+        <v>-7.247054180942321</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.0493</v>
+        <v>-0.0547568704458569</v>
       </c>
       <c r="AB2" t="n">
         <v>0.528</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.2</v>
+        <v>12.75000000000032</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.9</v>
+        <v>7.675000000000109</v>
       </c>
       <c r="AE2" t="n">
-        <v>31.7</v>
+        <v>31.71521907755971</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.7</v>
+        <v>0.6773969626501639</v>
       </c>
     </row>
     <row r="3">
@@ -706,34 +706,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.8279</v>
+        <v>40.82787582194739</v>
       </c>
       <c r="C3" t="n">
-        <v>21.1879</v>
+        <v>21.18788080757487</v>
       </c>
       <c r="D3" t="n">
-        <v>-162.1361</v>
+        <v>-162.1360790669985</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1108</v>
+        <v>0.1107836922247373</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0563</v>
+        <v>0.0562625418050957</v>
       </c>
       <c r="G3" t="n">
-        <v>1.1041</v>
+        <v>1.104100411027024</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>29.8802</v>
+        <v>29.88024877744328</v>
       </c>
       <c r="J3" t="n">
-        <v>15.5561</v>
+        <v>15.55614613036153</v>
       </c>
       <c r="K3" t="n">
-        <v>-109.3</v>
+        <v>-109.2673217803011</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -750,16 +750,16 @@
         <v>0.17</v>
       </c>
       <c r="P3" t="n">
-        <v>7.4</v>
+        <v>7.396926027039226</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>1.001972162957272</v>
       </c>
       <c r="R3" t="n">
-        <v>0.32</v>
+        <v>0.3219431223803818</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1</v>
+        <v>0.1000417903667351</v>
       </c>
       <c r="T3" t="n">
         <v>-11</v>
@@ -768,37 +768,37 @@
         <v>6</v>
       </c>
       <c r="V3" t="n">
-        <v>36.5834</v>
+        <v>36.58617498367085</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3637</v>
+        <v>0.3642673189173138</v>
       </c>
       <c r="X3" t="n">
-        <v>-97.1611</v>
+        <v>-97.16428988247472</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.0914</v>
+        <v>6.091717575202486</v>
       </c>
       <c r="Z3" t="n">
-        <v>-6.7032</v>
+        <v>-6.705926206227559</v>
       </c>
       <c r="AA3" t="n">
-        <v>-12.1389</v>
+        <v>-12.10303189782636</v>
       </c>
       <c r="AB3" t="n">
         <v>0.5299</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.9</v>
+        <v>8.750000000000266</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.9</v>
+        <v>4.800000000000068</v>
       </c>
       <c r="AE3" t="n">
-        <v>34.4</v>
+        <v>34.43028102363741</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>1.00590231422234</v>
       </c>
     </row>
     <row r="4">
@@ -808,34 +808,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.7693</v>
+        <v>41.76929488892359</v>
       </c>
       <c r="C4" t="n">
-        <v>21.6789</v>
+        <v>21.67888734846185</v>
       </c>
       <c r="D4" t="n">
-        <v>-158.788</v>
+        <v>-158.7879647813629</v>
       </c>
       <c r="E4" t="n">
-        <v>0.073</v>
+        <v>0.0730030891876929</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0334</v>
+        <v>0.0334389148490947</v>
       </c>
       <c r="G4" t="n">
-        <v>6.3696</v>
+        <v>6.369554309506401</v>
       </c>
       <c r="H4" t="n">
         <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>30.8118</v>
+        <v>30.81176581827549</v>
       </c>
       <c r="J4" t="n">
-        <v>16.0444</v>
+        <v>16.04444482618396</v>
       </c>
       <c r="K4" t="n">
-        <v>-105.9</v>
+        <v>-105.9190795626943</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -850,16 +850,16 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>10.17</v>
+        <v>10.17445563770063</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>1.000360836356271</v>
       </c>
       <c r="R4" t="n">
-        <v>0.26</v>
+        <v>0.2587155072874164</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1</v>
+        <v>0.1000060220896697</v>
       </c>
       <c r="T4" t="n">
         <v>-11</v>
@@ -868,37 +868,37 @@
         <v>6</v>
       </c>
       <c r="V4" t="n">
-        <v>35.8083</v>
+        <v>35.80585754090839</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3582</v>
+        <v>0.3583029786204861</v>
       </c>
       <c r="X4" t="n">
-        <v>-94.3005</v>
+        <v>-94.29596924730176</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.0852</v>
+        <v>6.085247973255921</v>
       </c>
       <c r="Z4" t="n">
-        <v>-4.9965</v>
+        <v>-4.994091722632902</v>
       </c>
       <c r="AA4" t="n">
-        <v>-11.5995</v>
+        <v>-11.62311031539255</v>
       </c>
       <c r="AB4" t="n">
         <v>0.5304</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.9</v>
+        <v>9.500000000000277</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.4</v>
+        <v>8.175000000000116</v>
       </c>
       <c r="AE4" t="n">
-        <v>29.8</v>
+        <v>29.81111568394476</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8</v>
+        <v>0.8037820583741961</v>
       </c>
     </row>
     <row r="5">
@@ -908,34 +908,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.6968</v>
+        <v>43.69683495271734</v>
       </c>
       <c r="C5" t="n">
-        <v>22.6731</v>
+        <v>22.67311369078408</v>
       </c>
       <c r="D5" t="n">
-        <v>-162.1644</v>
+        <v>-162.1643706110927</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0178</v>
+        <v>0.0178460186915301</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0128</v>
+        <v>0.0128167801158836</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5044</v>
+        <v>3.504432100824308</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>32.719</v>
+        <v>32.71903164631703</v>
       </c>
       <c r="J5" t="n">
-        <v>17.0332</v>
+        <v>17.03318812363818</v>
       </c>
       <c r="K5" t="n">
-        <v>-109.3</v>
+        <v>-109.2948760849524</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -954,16 +954,16 @@
         <v>0.4</v>
       </c>
       <c r="P5" t="n">
-        <v>8.92</v>
+        <v>8.916203067396783</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>1.001069794785835</v>
       </c>
       <c r="R5" t="n">
-        <v>0.51</v>
+        <v>0.5146542228238554</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1</v>
+        <v>0.1000364199379484</v>
       </c>
       <c r="T5" t="n">
         <v>-11</v>
@@ -972,37 +972,37 @@
         <v>6</v>
       </c>
       <c r="V5" t="n">
-        <v>36.3871</v>
+        <v>36.39292157338082</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3607</v>
+        <v>0.3610584480304624</v>
       </c>
       <c r="X5" t="n">
-        <v>-95.5789</v>
+        <v>-95.58283839133352</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.0879</v>
+        <v>6.088114332317625</v>
       </c>
       <c r="Z5" t="n">
-        <v>-3.6681</v>
+        <v>-3.673889927063783</v>
       </c>
       <c r="AA5" t="n">
-        <v>-13.7211</v>
+        <v>-13.71203769361884</v>
       </c>
       <c r="AB5" t="n">
         <v>0.5319</v>
       </c>
       <c r="AC5" t="n">
-        <v>4.7</v>
+        <v>5.200000000000216</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.1</v>
+        <v>5.950000000000085</v>
       </c>
       <c r="AE5" t="n">
-        <v>22.5</v>
+        <v>22.49122537428536</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.5</v>
+        <v>0.5263376339673869</v>
       </c>
     </row>
     <row r="6">
@@ -1012,34 +1012,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.6322</v>
+        <v>41.63219161840258</v>
       </c>
       <c r="C6" t="n">
-        <v>21.6057</v>
+        <v>21.60571346179594</v>
       </c>
       <c r="D6" t="n">
-        <v>-160.9188</v>
+        <v>-160.9188079178973</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1072</v>
+        <v>0.1071823424094341</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0545</v>
+        <v>0.0544608432602643</v>
       </c>
       <c r="G6" t="n">
-        <v>2.3811</v>
+        <v>2.381050963224779</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>30.6761</v>
+        <v>30.67610462622588</v>
       </c>
       <c r="J6" t="n">
-        <v>15.9717</v>
+        <v>15.9716744851562</v>
       </c>
       <c r="K6" t="n">
-        <v>-108.1</v>
+        <v>-108.0502303133262</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -1054,16 +1054,16 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>9.02</v>
+        <v>9.024453925766052</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>1.000226370278141</v>
       </c>
       <c r="R6" t="n">
-        <v>0.49</v>
+        <v>0.492693733921927</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1</v>
+        <v>0.1000067243002073</v>
       </c>
       <c r="T6" t="n">
         <v>-11</v>
@@ -1072,37 +1072,37 @@
         <v>6</v>
       </c>
       <c r="V6" t="n">
-        <v>36.3407</v>
+        <v>36.34234809959276</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3605</v>
+        <v>0.3605913365886408</v>
       </c>
       <c r="X6" t="n">
-        <v>-95.4759</v>
+        <v>-95.47131688198718</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.0877</v>
+        <v>6.087727523609868</v>
       </c>
       <c r="Z6" t="n">
-        <v>-5.6646</v>
+        <v>-5.666243473366876</v>
       </c>
       <c r="AA6" t="n">
-        <v>-12.6241</v>
+        <v>-12.57891343133898</v>
       </c>
       <c r="AB6" t="n">
         <v>0.5303</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.9</v>
+        <v>8.650000000000265</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.7</v>
+        <v>5.60000000000008</v>
       </c>
       <c r="AE6" t="n">
-        <v>31.5</v>
+        <v>31.54065793363185</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>0.9704156600016347</v>
       </c>
     </row>
     <row r="7">
@@ -1112,34 +1112,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.3101</v>
+        <v>41.31008837041881</v>
       </c>
       <c r="C7" t="n">
-        <v>21.4445</v>
+        <v>21.44450056945757</v>
       </c>
       <c r="D7" t="n">
-        <v>-155.4373</v>
+        <v>-155.4372885601154</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0021</v>
+        <v>0.002143732251549</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.0099725659169569</v>
       </c>
       <c r="G7" t="n">
-        <v>8.6762</v>
+        <v>8.67621189493755</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>30.3574</v>
+        <v>30.3573893219268</v>
       </c>
       <c r="J7" t="n">
-        <v>15.8114</v>
+        <v>15.81135066352965</v>
       </c>
       <c r="K7" t="n">
-        <v>-102.6</v>
+        <v>-102.5677714371227</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -1158,16 +1158,16 @@
         <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>15.14</v>
+        <v>15.14091500097467</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>1.000002636821688</v>
       </c>
       <c r="R7" t="n">
-        <v>1.61</v>
+        <v>1.607305112747934</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1</v>
+        <v>0.100000685845241</v>
       </c>
       <c r="T7" t="n">
         <v>-11</v>
@@ -1176,37 +1176,37 @@
         <v>6</v>
       </c>
       <c r="V7" t="n">
-        <v>35.9626</v>
+        <v>35.95958926191179</v>
       </c>
       <c r="W7" t="n">
-        <v>0.349</v>
+        <v>0.3489634182142254</v>
       </c>
       <c r="X7" t="n">
-        <v>-89.4127</v>
+        <v>-89.41180957093309</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.0752</v>
+        <v>6.075209580339846</v>
       </c>
       <c r="Z7" t="n">
-        <v>-5.6052</v>
+        <v>-5.602199939984985</v>
       </c>
       <c r="AA7" t="n">
-        <v>-13.1873</v>
+        <v>-13.15596186618961</v>
       </c>
       <c r="AB7" t="n">
         <v>0.5304</v>
       </c>
       <c r="AC7" t="n">
-        <v>13.5</v>
+        <v>14.30000000000035</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.3</v>
+        <v>10.07500000000014</v>
       </c>
       <c r="AE7" t="n">
-        <v>38.5</v>
+        <v>38.45883262001144</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.5</v>
+        <v>0.5064978814169763</v>
       </c>
     </row>
     <row r="8">
@@ -1216,34 +1216,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.5673</v>
+        <v>41.56727718194144</v>
       </c>
       <c r="C8" t="n">
-        <v>21.5878</v>
+        <v>21.58780055706003</v>
       </c>
       <c r="D8" t="n">
-        <v>-145.5456</v>
+        <v>-145.5456242283919</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1725</v>
+        <v>0.1725414711302221</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0922</v>
+        <v>0.0922084104351644</v>
       </c>
       <c r="G8" t="n">
-        <v>5.3955</v>
+        <v>5.395545308370481</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>30.6119</v>
+        <v>30.61187297224637</v>
       </c>
       <c r="J8" t="n">
-        <v>15.9539</v>
+        <v>15.95386036804655</v>
       </c>
       <c r="K8" t="n">
-        <v>-92.7</v>
+        <v>-92.67850877459516</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1262,16 +1262,16 @@
         <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>15.14</v>
+        <v>15.14091500097467</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>1.000002636821688</v>
       </c>
       <c r="R8" t="n">
-        <v>1.61</v>
+        <v>1.607305112747934</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1</v>
+        <v>0.100000685845241</v>
       </c>
       <c r="T8" t="n">
         <v>-11</v>
@@ -1280,37 +1280,37 @@
         <v>6</v>
       </c>
       <c r="V8" t="n">
-        <v>35.9626</v>
+        <v>35.95958926191179</v>
       </c>
       <c r="W8" t="n">
-        <v>0.349</v>
+        <v>0.3489634182142254</v>
       </c>
       <c r="X8" t="n">
-        <v>-89.4127</v>
+        <v>-89.41180957093309</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.0752</v>
+        <v>6.075209580339846</v>
       </c>
       <c r="Z8" t="n">
-        <v>-5.3507</v>
+        <v>-5.347716289665417</v>
       </c>
       <c r="AA8" t="n">
-        <v>-3.2873</v>
+        <v>-3.266699203662071</v>
       </c>
       <c r="AB8" t="n">
         <v>0.5286</v>
       </c>
       <c r="AC8" t="n">
-        <v>20.2</v>
+        <v>20.80000000000044</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.9</v>
+        <v>8.675000000000122</v>
       </c>
       <c r="AE8" t="n">
-        <v>37.2</v>
+        <v>37.23624898910793</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.3</v>
+        <v>1.318082807637467</v>
       </c>
     </row>
     <row r="9">
@@ -1320,34 +1320,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42.575</v>
+        <v>42.57501908877815</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0943</v>
+        <v>22.09434314563708</v>
       </c>
       <c r="D9" t="n">
-        <v>-160.4382</v>
+        <v>-160.4382036506689</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0586</v>
+        <v>0.0586081468543779</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0335</v>
+        <v>0.0334726514536641</v>
       </c>
       <c r="G9" t="n">
-        <v>3.0677</v>
+        <v>3.067667248446712</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>31.609</v>
+        <v>31.60901525660051</v>
       </c>
       <c r="J9" t="n">
-        <v>16.4576</v>
+        <v>16.45760943202811</v>
       </c>
       <c r="K9" t="n">
-        <v>-107.6</v>
+        <v>-107.5688588061965</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1362,16 +1362,16 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>4.95</v>
+        <v>4.954848054246427</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>1.00060914618306</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.06</v>
+        <v>-0.0598442162893142</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1</v>
+        <v>0.100002092345084</v>
       </c>
       <c r="T9" t="n">
         <v>-11</v>
@@ -1380,37 +1380,37 @@
         <v>6</v>
       </c>
       <c r="V9" t="n">
-        <v>36.8325</v>
+        <v>36.83134462054363</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3685</v>
+        <v>0.3686796851166036</v>
       </c>
       <c r="X9" t="n">
-        <v>-99.7764</v>
+        <v>-99.77119066249428</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.0972</v>
+        <v>6.097289953654306</v>
       </c>
       <c r="Z9" t="n">
-        <v>-5.2235</v>
+        <v>-5.222329363943118</v>
       </c>
       <c r="AA9" t="n">
-        <v>-7.8236</v>
+        <v>-7.797668143702182</v>
       </c>
       <c r="AB9" t="n">
         <v>0.5295</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.4</v>
+        <v>6.950000000000241</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>5.850000000000083</v>
       </c>
       <c r="AE9" t="n">
-        <v>24.8</v>
+        <v>24.75684963036042</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.7</v>
+        <v>0.7143499266892377</v>
       </c>
     </row>
     <row r="10">
@@ -1420,34 +1420,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.8476</v>
+        <v>37.8476437943883</v>
       </c>
       <c r="C10" t="n">
-        <v>19.6684</v>
+        <v>19.66844437450536</v>
       </c>
       <c r="D10" t="n">
-        <v>-137.147</v>
+        <v>-137.1469979094456</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1551</v>
+        <v>0.1551039962707424</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0737</v>
+        <v>0.0736809923082756</v>
       </c>
       <c r="G10" t="n">
-        <v>9.0289</v>
+        <v>9.028949436396852</v>
       </c>
       <c r="H10" t="n">
         <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>26.9314</v>
+        <v>26.9313634014311</v>
       </c>
       <c r="J10" t="n">
-        <v>14.0451</v>
+        <v>14.04508921590048</v>
       </c>
       <c r="K10" t="n">
-        <v>-84.3</v>
+        <v>-84.28013258312106</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1464,16 +1464,16 @@
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>27.24</v>
+        <v>27.23761571248373</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.31</v>
+        <v>1.311783206456589</v>
       </c>
       <c r="R10" t="n">
-        <v>0.95</v>
+        <v>0.9489880868345976</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1</v>
+        <v>0.100995999124084</v>
       </c>
       <c r="T10" t="n">
         <v>-11</v>
@@ -1482,37 +1482,37 @@
         <v>6</v>
       </c>
       <c r="V10" t="n">
-        <v>32.4443</v>
+        <v>32.44382026411881</v>
       </c>
       <c r="W10" t="n">
-        <v>0.3961</v>
+        <v>0.3975496618994611</v>
       </c>
       <c r="X10" t="n">
-        <v>-78.7136</v>
+        <v>-78.71553359921535</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.0952</v>
+        <v>6.095474366845156</v>
       </c>
       <c r="Z10" t="n">
-        <v>-5.5129</v>
+        <v>-5.512456862687714</v>
       </c>
       <c r="AA10" t="n">
-        <v>-5.5864</v>
+        <v>-5.564598983905711</v>
       </c>
       <c r="AB10" t="n">
         <v>0.529</v>
       </c>
       <c r="AC10" t="n">
-        <v>31.4</v>
+        <v>32.1000000000006</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.1</v>
+        <v>12.75000000000018</v>
       </c>
       <c r="AE10" t="n">
-        <v>52.3</v>
+        <v>52.31526861154759</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.4</v>
+        <v>1.362201241110398</v>
       </c>
     </row>
     <row r="11">
@@ -1522,34 +1522,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.4227</v>
+        <v>38.4226676531214</v>
       </c>
       <c r="C11" t="n">
-        <v>19.9624</v>
+        <v>19.96243217700478</v>
       </c>
       <c r="D11" t="n">
-        <v>-141.3321</v>
+        <v>-141.3321158881213</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1329</v>
+        <v>0.1329024305598858</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0703</v>
+        <v>0.07030937436498209</v>
       </c>
       <c r="G11" t="n">
-        <v>4.5261</v>
+        <v>4.526067847867408</v>
       </c>
       <c r="H11" t="n">
         <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>27.5003</v>
+        <v>27.50033904903034</v>
       </c>
       <c r="J11" t="n">
-        <v>14.3375</v>
+        <v>14.33745570920382</v>
       </c>
       <c r="K11" t="n">
-        <v>-88.5</v>
+        <v>-88.46424572327649</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1568,16 +1568,16 @@
         <v>0.52</v>
       </c>
       <c r="P11" t="n">
-        <v>28.11</v>
+        <v>28.10890011472013</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.14</v>
+        <v>1.136879140313881</v>
       </c>
       <c r="R11" t="n">
-        <v>0.57</v>
+        <v>0.5683919888466225</v>
       </c>
       <c r="S11" t="n">
-        <v>0.23</v>
+        <v>0.2316670849389598</v>
       </c>
       <c r="T11" t="n">
         <v>-11</v>
@@ -1586,37 +1586,37 @@
         <v>6</v>
       </c>
       <c r="V11" t="n">
-        <v>31.8585</v>
+        <v>31.85711723561189</v>
       </c>
       <c r="W11" t="n">
-        <v>0.4903</v>
+        <v>0.4913761608672757</v>
       </c>
       <c r="X11" t="n">
-        <v>-78.0048</v>
+        <v>-78.00565628885181</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.0707</v>
+        <v>6.070320663306213</v>
       </c>
       <c r="Z11" t="n">
-        <v>-4.3582</v>
+        <v>-4.356778186581551</v>
       </c>
       <c r="AA11" t="n">
-        <v>-10.4952</v>
+        <v>-10.45858943442468</v>
       </c>
       <c r="AB11" t="n">
         <v>0.5305</v>
       </c>
       <c r="AC11" t="n">
-        <v>26.5</v>
+        <v>27.20000000000053</v>
       </c>
       <c r="AD11" t="n">
-        <v>8.9</v>
+        <v>8.775000000000126</v>
       </c>
       <c r="AE11" t="n">
-        <v>47.3</v>
+        <v>47.33906770424119</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.9</v>
+        <v>1.893840664883271</v>
       </c>
     </row>
     <row r="12">
@@ -1626,34 +1626,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37.2947</v>
+        <v>37.29465784410296</v>
       </c>
       <c r="C12" t="n">
-        <v>19.3767</v>
+        <v>19.3767458367119</v>
       </c>
       <c r="D12" t="n">
-        <v>-141.8584</v>
+        <v>-141.8584261484582</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0562</v>
+        <v>0.0562085185273089</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0348</v>
+        <v>0.034771634921548</v>
       </c>
       <c r="G12" t="n">
-        <v>8.545999999999999</v>
+        <v>8.54598888073957</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3842</v>
+        <v>26.38419386333567</v>
       </c>
       <c r="J12" t="n">
-        <v>13.755</v>
+        <v>13.75499936226924</v>
       </c>
       <c r="K12" t="n">
-        <v>-89</v>
+        <v>-88.98908701401709</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1670,16 +1670,16 @@
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>27.24</v>
+        <v>27.23761571248373</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.31</v>
+        <v>1.311783206456589</v>
       </c>
       <c r="R12" t="n">
-        <v>0.95</v>
+        <v>0.9489880868345976</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1</v>
+        <v>0.100995999124084</v>
       </c>
       <c r="T12" t="n">
         <v>-11</v>
@@ -1688,37 +1688,37 @@
         <v>6</v>
       </c>
       <c r="V12" t="n">
-        <v>32.4443</v>
+        <v>32.44382026411881</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3961</v>
+        <v>0.3975496618994611</v>
       </c>
       <c r="X12" t="n">
-        <v>-78.7136</v>
+        <v>-78.71553359921535</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.0952</v>
+        <v>6.095474366845156</v>
       </c>
       <c r="Z12" t="n">
-        <v>-6.0601</v>
+        <v>-6.059626400783145</v>
       </c>
       <c r="AA12" t="n">
-        <v>-10.2864</v>
+        <v>-10.27355341480174</v>
       </c>
       <c r="AB12" t="n">
         <v>0.5296999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>28.4</v>
+        <v>29.30000000000056</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.1</v>
+        <v>11.82500000000017</v>
       </c>
       <c r="AE12" t="n">
-        <v>55.2</v>
+        <v>55.22186344438512</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.9</v>
+        <v>0.8562969197081429</v>
       </c>
     </row>
     <row r="13">
@@ -1728,34 +1728,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.2007</v>
+        <v>43.20074211536915</v>
       </c>
       <c r="C13" t="n">
-        <v>22.4162</v>
+        <v>22.41624113313177</v>
       </c>
       <c r="D13" t="n">
-        <v>-162.3423</v>
+        <v>-162.342266990354</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1312</v>
+        <v>0.1312176213586265</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0741</v>
+        <v>0.0741071510204119</v>
       </c>
       <c r="G13" t="n">
-        <v>9.737500000000001</v>
+        <v>9.737532398124175</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>32.2282</v>
+        <v>32.22815680849499</v>
       </c>
       <c r="J13" t="n">
-        <v>16.7777</v>
+        <v>16.77773218884022</v>
       </c>
       <c r="K13" t="n">
-        <v>-109.5</v>
+        <v>-109.4739356840968</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1774,16 +1774,16 @@
         <v>0.47</v>
       </c>
       <c r="P13" t="n">
-        <v>11.16</v>
+        <v>11.16328319322238</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>1.00495239978773</v>
       </c>
       <c r="R13" t="n">
-        <v>0.93</v>
+        <v>0.9342006845586784</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1</v>
+        <v>0.1010984901813536</v>
       </c>
       <c r="T13" t="n">
         <v>-11</v>
@@ -1792,37 +1792,37 @@
         <v>6</v>
       </c>
       <c r="V13" t="n">
-        <v>36.2508</v>
+        <v>36.25431815539128</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3564</v>
+        <v>0.3588343206995432</v>
       </c>
       <c r="X13" t="n">
-        <v>-93.3022</v>
+        <v>-93.29894449343357</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.0831</v>
+        <v>6.083915194446893</v>
       </c>
       <c r="Z13" t="n">
-        <v>-4.0226</v>
+        <v>-4.026161346896288</v>
       </c>
       <c r="AA13" t="n">
-        <v>-16.1978</v>
+        <v>-16.17499119066323</v>
       </c>
       <c r="AB13" t="n">
         <v>0.5322</v>
       </c>
       <c r="AC13" t="n">
-        <v>5.7</v>
+        <v>6.300000000000232</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.3</v>
+        <v>10.05000000000014</v>
       </c>
       <c r="AE13" t="n">
-        <v>26.5</v>
+        <v>26.56036091631478</v>
       </c>
       <c r="AF13" t="n">
-        <v>1</v>
+        <v>1.051369402674538</v>
       </c>
     </row>
     <row r="14">
@@ -1832,34 +1832,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.1813</v>
+        <v>44.18133211412314</v>
       </c>
       <c r="C14" t="n">
-        <v>22.9326</v>
+        <v>22.93262032746734</v>
       </c>
       <c r="D14" t="n">
-        <v>-153.4897</v>
+        <v>-153.4896869391318</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1089</v>
+        <v>0.1088607297024624</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0576</v>
+        <v>0.057610175284056</v>
       </c>
       <c r="G14" t="n">
-        <v>4.1577</v>
+        <v>4.15772884404423</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>33.1984</v>
+        <v>33.1984327737382</v>
       </c>
       <c r="J14" t="n">
-        <v>17.2913</v>
+        <v>17.29126361082172</v>
       </c>
       <c r="K14" t="n">
-        <v>-100.6</v>
+        <v>-100.6211556714227</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1878,16 +1878,16 @@
         <v>0.6</v>
       </c>
       <c r="P14" t="n">
-        <v>9.98</v>
+        <v>9.97909751644683</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>1.000314176808703</v>
       </c>
       <c r="R14" t="n">
-        <v>0.54</v>
+        <v>0.5376120410316583</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1</v>
+        <v>0.1000078999895032</v>
       </c>
       <c r="T14" t="n">
         <v>-11</v>
@@ -1896,37 +1896,37 @@
         <v>6</v>
       </c>
       <c r="V14" t="n">
-        <v>36.1467</v>
+        <v>36.14446400980637</v>
       </c>
       <c r="W14" t="n">
-        <v>0.3587</v>
+        <v>0.3587472540647241</v>
       </c>
       <c r="X14" t="n">
-        <v>-94.4935</v>
+        <v>-94.49442750356596</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.0856</v>
+        <v>6.085659926375054</v>
       </c>
       <c r="Z14" t="n">
-        <v>-2.9483</v>
+        <v>-2.946031236068165</v>
       </c>
       <c r="AA14" t="n">
-        <v>-6.1065</v>
+        <v>-6.126728167856768</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.5301</v>
+        <v>0.5302</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.699999999999999</v>
+        <v>10.05000000000028</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>6.850000000000097</v>
       </c>
       <c r="AE14" t="n">
-        <v>20.5</v>
+        <v>20.52386469458725</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.9</v>
+        <v>0.9097324719185735</v>
       </c>
     </row>
     <row r="15">
@@ -1936,34 +1936,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.5509</v>
+        <v>38.55088648247077</v>
       </c>
       <c r="C15" t="n">
-        <v>20.026</v>
+        <v>20.02595913611695</v>
       </c>
       <c r="D15" t="n">
-        <v>-144.2403</v>
+        <v>-144.2402779720392</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1558</v>
+        <v>0.1558330203596686</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08169999999999999</v>
+        <v>0.0817486975578732</v>
       </c>
       <c r="G15" t="n">
-        <v>4.4157</v>
+        <v>4.41573680016486</v>
       </c>
       <c r="H15" t="n">
         <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>27.6272</v>
+        <v>27.6272092481629</v>
       </c>
       <c r="J15" t="n">
-        <v>14.4006</v>
+        <v>14.40063232438297</v>
       </c>
       <c r="K15" t="n">
-        <v>-91.40000000000001</v>
+        <v>-91.37312598142344</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1980,16 +1980,16 @@
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>25.84</v>
+        <v>25.8369534778595</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.51</v>
+        <v>3.505993602116302</v>
       </c>
       <c r="R15" t="n">
-        <v>1.04</v>
+        <v>1.041527204900287</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1</v>
+        <v>0.100770018609694</v>
       </c>
       <c r="T15" t="n">
         <v>-11</v>
@@ -1998,37 +1998,37 @@
         <v>6</v>
       </c>
       <c r="V15" t="n">
-        <v>32.852</v>
+        <v>32.85424059655975</v>
       </c>
       <c r="W15" t="n">
-        <v>0.8968</v>
+        <v>0.8967145475448888</v>
       </c>
       <c r="X15" t="n">
-        <v>-79.8704</v>
+        <v>-79.8729585947946</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.6757</v>
+        <v>6.674325699698803</v>
       </c>
       <c r="Z15" t="n">
-        <v>-5.2248</v>
+        <v>-5.227031348396849</v>
       </c>
       <c r="AA15" t="n">
-        <v>-11.5296</v>
+        <v>-11.50016738662885</v>
       </c>
       <c r="AB15" t="n">
         <v>0.5303</v>
       </c>
       <c r="AC15" t="n">
-        <v>24.7</v>
+        <v>25.55000000000051</v>
       </c>
       <c r="AD15" t="n">
-        <v>8.5</v>
+        <v>8.350000000000117</v>
       </c>
       <c r="AE15" t="n">
-        <v>49.2</v>
+        <v>49.18222979148408</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.3</v>
+        <v>1.338857260904575</v>
       </c>
     </row>
     <row r="16">
@@ -2038,34 +2038,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.2251</v>
+        <v>38.22511913820046</v>
       </c>
       <c r="C16" t="n">
-        <v>19.863</v>
+        <v>19.86295080155531</v>
       </c>
       <c r="D16" t="n">
-        <v>-138.4158</v>
+        <v>-138.4157592187546</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1083</v>
+        <v>0.1083173113388462</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0525</v>
+        <v>0.0524553095719187</v>
       </c>
       <c r="G16" t="n">
-        <v>7.6008</v>
+        <v>7.600795801205139</v>
       </c>
       <c r="H16" t="n">
         <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>27.3049</v>
+        <v>27.30486838724414</v>
       </c>
       <c r="J16" t="n">
-        <v>14.2385</v>
+        <v>14.23852296219218</v>
       </c>
       <c r="K16" t="n">
-        <v>-85.5</v>
+        <v>-85.54759471672391</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -2082,16 +2082,16 @@
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>25.84</v>
+        <v>25.8369534778595</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.51</v>
+        <v>3.505993602116302</v>
       </c>
       <c r="R16" t="n">
-        <v>1.04</v>
+        <v>1.041527204900287</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1</v>
+        <v>0.100770018609694</v>
       </c>
       <c r="T16" t="n">
         <v>-11</v>
@@ -2100,37 +2100,37 @@
         <v>6</v>
       </c>
       <c r="V16" t="n">
-        <v>32.852</v>
+        <v>32.85424059655975</v>
       </c>
       <c r="W16" t="n">
-        <v>0.8968</v>
+        <v>0.8967145475448888</v>
       </c>
       <c r="X16" t="n">
-        <v>-79.8704</v>
+        <v>-79.8729585947946</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.6757</v>
+        <v>6.674325699698803</v>
       </c>
       <c r="Z16" t="n">
-        <v>-5.5471</v>
+        <v>-5.549372209315607</v>
       </c>
       <c r="AA16" t="n">
-        <v>-5.6296</v>
+        <v>-5.674636121929311</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.529</v>
+        <v>0.5291</v>
       </c>
       <c r="AC16" t="n">
-        <v>30</v>
+        <v>30.60000000000058</v>
       </c>
       <c r="AD16" t="n">
-        <v>11.6</v>
+        <v>11.30000000000016</v>
       </c>
       <c r="AE16" t="n">
-        <v>50.8</v>
+        <v>50.85533442890113</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.1</v>
+        <v>1.104703289574161</v>
       </c>
     </row>
     <row r="17">
@@ -2140,34 +2140,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37.7227</v>
+        <v>37.72268637264131</v>
       </c>
       <c r="C17" t="n">
-        <v>19.5969</v>
+        <v>19.59691880767102</v>
       </c>
       <c r="D17" t="n">
-        <v>-143.7208</v>
+        <v>-143.7208007343562</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1454</v>
+        <v>0.1454423619770178</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0747</v>
+        <v>0.07469084009763979</v>
       </c>
       <c r="G17" t="n">
-        <v>3.5595</v>
+        <v>3.559538099392929</v>
       </c>
       <c r="H17" t="n">
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>26.8077</v>
+        <v>26.80772030579101</v>
       </c>
       <c r="J17" t="n">
-        <v>13.974</v>
+        <v>13.97395810440844</v>
       </c>
       <c r="K17" t="n">
-        <v>-90.90000000000001</v>
+        <v>-90.8531839166926</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -2184,16 +2184,16 @@
         <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>27.29</v>
+        <v>27.29264664808909</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.42</v>
+        <v>1.424226242592546</v>
       </c>
       <c r="R17" t="n">
-        <v>0.96</v>
+        <v>0.9630482716372716</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1</v>
+        <v>0.1014163849683412</v>
       </c>
       <c r="T17" t="n">
         <v>-11</v>
@@ -2202,37 +2202,37 @@
         <v>6</v>
       </c>
       <c r="V17" t="n">
-        <v>32.4435</v>
+        <v>32.44601800767987</v>
       </c>
       <c r="W17" t="n">
-        <v>0.4206</v>
+        <v>0.4230002147600089</v>
       </c>
       <c r="X17" t="n">
-        <v>-78.6726</v>
+        <v>-78.67046952577184</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.1116</v>
+        <v>6.112236091087101</v>
       </c>
       <c r="Z17" t="n">
-        <v>-5.6358</v>
+        <v>-5.63829770188886</v>
       </c>
       <c r="AA17" t="n">
-        <v>-12.2274</v>
+        <v>-12.18271439092076</v>
       </c>
       <c r="AB17" t="n">
         <v>0.5302</v>
       </c>
       <c r="AC17" t="n">
-        <v>26.3</v>
+        <v>27.15000000000053</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>7.800000000000109</v>
       </c>
       <c r="AE17" t="n">
-        <v>53</v>
+        <v>53.04381984867712</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.3</v>
+        <v>1.319395930864715</v>
       </c>
     </row>
     <row r="18">
@@ -2242,34 +2242,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>43.6761</v>
+        <v>43.67605487814655</v>
       </c>
       <c r="C18" t="n">
-        <v>22.6543</v>
+        <v>22.65434614329349</v>
       </c>
       <c r="D18" t="n">
-        <v>-170.0025</v>
+        <v>-170.002500836766</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1</v>
+        <v>0.09995020359121259</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0511</v>
+        <v>0.0510954486684904</v>
       </c>
       <c r="G18" t="n">
-        <v>5.1808</v>
+        <v>5.180753601543485</v>
       </c>
       <c r="H18" t="n">
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>32.6985</v>
+        <v>32.69847014055244</v>
       </c>
       <c r="J18" t="n">
-        <v>17.0145</v>
+        <v>17.0145240770313</v>
       </c>
       <c r="K18" t="n">
-        <v>-117.1</v>
+        <v>-117.1338868022289</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -2286,16 +2286,16 @@
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>3.02</v>
+        <v>3.016210616426932</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>1.000080261621265</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.09</v>
+        <v>-0.08585535897502369</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1</v>
+        <v>0.1000001581743931</v>
       </c>
       <c r="T18" t="n">
         <v>-11</v>
@@ -2304,37 +2304,37 @@
         <v>6</v>
       </c>
       <c r="V18" t="n">
-        <v>37.3162</v>
+        <v>37.32152643991071</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3724</v>
+        <v>0.3724762065763798</v>
       </c>
       <c r="X18" t="n">
-        <v>-101.895</v>
+        <v>-101.8992300095789</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.1021</v>
+        <v>6.10207802497882</v>
       </c>
       <c r="Z18" t="n">
-        <v>-4.6177</v>
+        <v>-4.623056299358268</v>
       </c>
       <c r="AA18" t="n">
-        <v>-15.205</v>
+        <v>-15.23465679265001</v>
       </c>
       <c r="AB18" t="n">
         <v>0.5314</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.8</v>
+        <v>-0.1999999999998607</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.8</v>
+        <v>6.675000000000095</v>
       </c>
       <c r="AE18" t="n">
-        <v>19.9</v>
+        <v>19.90785119135165</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.9</v>
+        <v>0.8684350962192582</v>
       </c>
     </row>
   </sheetData>

--- a/SK Table S-3.xlsx
+++ b/SK Table S-3.xlsx
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>29.6</v>
+        <v>10.02</v>
       </c>
       <c r="O14" t="n">
         <v>0.6</v>

--- a/SK Table S-3.xlsx
+++ b/SK Table S-3.xlsx
@@ -663,7 +663,7 @@
         <v>-11</v>
       </c>
       <c r="U2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>37.82717919288393</v>
@@ -690,7 +690,7 @@
         <v>12.75000000000032</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.675000000000109</v>
+        <v>3.725000000000053</v>
       </c>
       <c r="AE2" t="n">
         <v>31.71521907755971</v>
@@ -765,7 +765,7 @@
         <v>-11</v>
       </c>
       <c r="U3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>36.58617498367085</v>
@@ -792,7 +792,7 @@
         <v>8.750000000000266</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.800000000000068</v>
+        <v>0.9750000000000139</v>
       </c>
       <c r="AE3" t="n">
         <v>34.43028102363741</v>
@@ -808,34 +808,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.76929488892359</v>
+        <v>41.76917426012037</v>
       </c>
       <c r="C4" t="n">
-        <v>21.67888734846185</v>
+        <v>21.67912525943957</v>
       </c>
       <c r="D4" t="n">
-        <v>-158.7879647813629</v>
+        <v>-158.4939563556084</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0730030891876929</v>
+        <v>0.0731014565075889</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0334389148490947</v>
+        <v>0.0332598797381678</v>
       </c>
       <c r="G4" t="n">
-        <v>6.369554309506401</v>
+        <v>6.62436345753013</v>
       </c>
       <c r="H4" t="n">
         <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>30.81176581827549</v>
+        <v>30.81164645826902</v>
       </c>
       <c r="J4" t="n">
-        <v>16.04444482618396</v>
+        <v>16.04468142510973</v>
       </c>
       <c r="K4" t="n">
-        <v>-105.9190795626943</v>
+        <v>-105.6250785103714</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>-11</v>
       </c>
       <c r="U4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>35.80585754090839</v>
@@ -880,25 +880,25 @@
         <v>6.085247973255921</v>
       </c>
       <c r="Z4" t="n">
-        <v>-4.994091722632902</v>
+        <v>-4.994211082639367</v>
       </c>
       <c r="AA4" t="n">
-        <v>-11.62311031539255</v>
+        <v>-11.32910926306963</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.5304</v>
+        <v>0.5303</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.500000000000277</v>
+        <v>9.70000000000028</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.175000000000116</v>
+        <v>4.500000000000064</v>
       </c>
       <c r="AE4" t="n">
-        <v>29.81111568394476</v>
+        <v>29.81166059421821</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8037820583741961</v>
+        <v>0.804233978185664</v>
       </c>
     </row>
     <row r="5">
@@ -908,34 +908,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.69683495271734</v>
+        <v>43.69664521854864</v>
       </c>
       <c r="C5" t="n">
-        <v>22.67311369078408</v>
+        <v>22.67348782884108</v>
       </c>
       <c r="D5" t="n">
-        <v>-162.1643706110927</v>
+        <v>-161.702542032165</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0178460186915301</v>
+        <v>0.0178461209160522</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0128167801158836</v>
+        <v>0.0128164973356651</v>
       </c>
       <c r="G5" t="n">
-        <v>3.504432100824308</v>
+        <v>3.504097648983512</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>32.71903164631703</v>
+        <v>32.7188439078086</v>
       </c>
       <c r="J5" t="n">
-        <v>17.03318812363818</v>
+        <v>17.03356019836656</v>
       </c>
       <c r="K5" t="n">
-        <v>-109.2948760849524</v>
+        <v>-108.8330475078045</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>-11</v>
       </c>
       <c r="U5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>36.39292157338082</v>
@@ -984,25 +984,25 @@
         <v>6.088114332317625</v>
       </c>
       <c r="Z5" t="n">
-        <v>-3.673889927063783</v>
+        <v>-3.674077665572213</v>
       </c>
       <c r="AA5" t="n">
-        <v>-13.71203769361884</v>
+        <v>-13.25020911647101</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.5319</v>
+        <v>0.5317</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.200000000000216</v>
+        <v>5.50000000000022</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.950000000000085</v>
+        <v>2.300000000000033</v>
       </c>
       <c r="AE5" t="n">
-        <v>22.49122537428536</v>
+        <v>22.49204132708667</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.5263376339673869</v>
+        <v>0.5263409020159315</v>
       </c>
     </row>
     <row r="6">
@@ -1012,34 +1012,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.63219161840258</v>
+        <v>41.6319900576652</v>
       </c>
       <c r="C6" t="n">
-        <v>21.60571346179594</v>
+        <v>21.60611115020392</v>
       </c>
       <c r="D6" t="n">
-        <v>-160.9188079178973</v>
+        <v>-160.4273596474464</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1071823424094341</v>
+        <v>0.1071829563650286</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0544608432602643</v>
+        <v>0.054459641675388</v>
       </c>
       <c r="G6" t="n">
-        <v>2.381050963224779</v>
+        <v>2.381686946211433</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>30.67610462622588</v>
+        <v>30.67590518554289</v>
       </c>
       <c r="J6" t="n">
-        <v>15.9716744851562</v>
+        <v>15.9720699803579</v>
       </c>
       <c r="K6" t="n">
-        <v>-108.0502303133262</v>
+        <v>-107.5587821075867</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>-11</v>
       </c>
       <c r="U6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>36.34234809959276</v>
@@ -1084,25 +1084,25 @@
         <v>6.087727523609868</v>
       </c>
       <c r="Z6" t="n">
-        <v>-5.666243473366876</v>
+        <v>-5.666442914049867</v>
       </c>
       <c r="AA6" t="n">
-        <v>-12.57891343133898</v>
+        <v>-12.08746522559956</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.5303</v>
+        <v>0.5302</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.650000000000265</v>
+        <v>8.950000000000269</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.60000000000008</v>
+        <v>1.800000000000026</v>
       </c>
       <c r="AE6" t="n">
-        <v>31.54065793363185</v>
+        <v>31.54157864469823</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.9704156600016347</v>
+        <v>0.9704242672129055</v>
       </c>
     </row>
     <row r="7">
@@ -1173,7 +1173,7 @@
         <v>-11</v>
       </c>
       <c r="U7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>35.95958926191179</v>
@@ -1200,7 +1200,7 @@
         <v>14.30000000000035</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.07500000000014</v>
+        <v>5.975000000000085</v>
       </c>
       <c r="AE7" t="n">
         <v>38.45883262001144</v>
@@ -1277,7 +1277,7 @@
         <v>-11</v>
       </c>
       <c r="U8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>35.95958926191179</v>
@@ -1304,7 +1304,7 @@
         <v>20.80000000000044</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.675000000000122</v>
+        <v>4.325000000000061</v>
       </c>
       <c r="AE8" t="n">
         <v>37.23624898910793</v>
@@ -1377,7 +1377,7 @@
         <v>-11</v>
       </c>
       <c r="U9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>36.83134462054363</v>
@@ -1404,7 +1404,7 @@
         <v>6.950000000000241</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.850000000000083</v>
+        <v>2.12500000000003</v>
       </c>
       <c r="AE9" t="n">
         <v>24.75684963036042</v>
@@ -1420,34 +1420,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.8476437943883</v>
+        <v>37.84755433105605</v>
       </c>
       <c r="C10" t="n">
-        <v>19.66844437450536</v>
+        <v>19.66862080603288</v>
       </c>
       <c r="D10" t="n">
-        <v>-137.1469979094456</v>
+        <v>-136.9284473239851</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1551039962707424</v>
+        <v>0.1551571090134556</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0736809923082756</v>
+        <v>0.0735928180095818</v>
       </c>
       <c r="G10" t="n">
-        <v>9.028949436396852</v>
+        <v>9.285629248034622</v>
       </c>
       <c r="H10" t="n">
         <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>26.9313634014311</v>
+        <v>26.93127487909146</v>
       </c>
       <c r="J10" t="n">
-        <v>14.04508921590048</v>
+        <v>14.04526467442827</v>
       </c>
       <c r="K10" t="n">
-        <v>-84.28013258312106</v>
+        <v>-84.06159022654869</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>-11</v>
       </c>
       <c r="U10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>32.44382026411881</v>
@@ -1494,25 +1494,25 @@
         <v>6.095474366845156</v>
       </c>
       <c r="Z10" t="n">
-        <v>-5.512456862687714</v>
+        <v>-5.512545385027352</v>
       </c>
       <c r="AA10" t="n">
-        <v>-5.564598983905711</v>
+        <v>-5.34605662733334</v>
       </c>
       <c r="AB10" t="n">
         <v>0.529</v>
       </c>
       <c r="AC10" t="n">
-        <v>32.1000000000006</v>
+        <v>32.3000000000006</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.75000000000018</v>
+        <v>8.050000000000114</v>
       </c>
       <c r="AE10" t="n">
-        <v>52.31526861154759</v>
+        <v>52.31573468547009</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.362201241110398</v>
+        <v>1.362484751062027</v>
       </c>
     </row>
     <row r="11">
@@ -1522,34 +1522,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.4226676531214</v>
+        <v>38.42252082305689</v>
       </c>
       <c r="C11" t="n">
-        <v>19.96243217700478</v>
+        <v>19.96272187866033</v>
       </c>
       <c r="D11" t="n">
-        <v>-141.3321158881213</v>
+        <v>-140.9734150113338</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1329024305598858</v>
+        <v>0.1329722740101692</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07030937436498209</v>
+        <v>0.0701724576030002</v>
       </c>
       <c r="G11" t="n">
-        <v>4.526067847867408</v>
+        <v>4.495379647657267</v>
       </c>
       <c r="H11" t="n">
         <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>27.50033904903034</v>
+        <v>27.5001937633524</v>
       </c>
       <c r="J11" t="n">
-        <v>14.33745570920382</v>
+        <v>14.33774381318778</v>
       </c>
       <c r="K11" t="n">
-        <v>-88.46424572327649</v>
+        <v>-88.10555634094897</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>-11</v>
       </c>
       <c r="U11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>31.85711723561189</v>
@@ -1598,25 +1598,25 @@
         <v>6.070320663306213</v>
       </c>
       <c r="Z11" t="n">
-        <v>-4.356778186581551</v>
+        <v>-4.356923472259496</v>
       </c>
       <c r="AA11" t="n">
-        <v>-10.45858943442468</v>
+        <v>-10.09990005209716</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.5305</v>
+        <v>0.5304</v>
       </c>
       <c r="AC11" t="n">
-        <v>27.20000000000053</v>
+        <v>27.45000000000053</v>
       </c>
       <c r="AD11" t="n">
-        <v>8.775000000000126</v>
+        <v>4.100000000000058</v>
       </c>
       <c r="AE11" t="n">
-        <v>47.33906770424119</v>
+        <v>47.33980971023271</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.893840664883271</v>
+        <v>1.894206004892027</v>
       </c>
     </row>
     <row r="12">
@@ -1626,34 +1626,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37.29465784410296</v>
+        <v>37.29452188885317</v>
       </c>
       <c r="C12" t="n">
-        <v>19.3767458367119</v>
+        <v>19.37701420318124</v>
       </c>
       <c r="D12" t="n">
-        <v>-141.8584261484582</v>
+        <v>-141.5259505297186</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0562085185273089</v>
+        <v>0.0563064227566446</v>
       </c>
       <c r="F12" t="n">
-        <v>0.034771634921548</v>
+        <v>0.0345923131143763</v>
       </c>
       <c r="G12" t="n">
-        <v>8.54598888073957</v>
+        <v>8.46357131307928</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38419386333567</v>
+        <v>26.38405933808917</v>
       </c>
       <c r="J12" t="n">
-        <v>13.75499936226924</v>
+        <v>13.75526624872816</v>
       </c>
       <c r="K12" t="n">
-        <v>-88.98908701401709</v>
+        <v>-88.65661834565408</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>-11</v>
       </c>
       <c r="U12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>32.44382026411881</v>
@@ -1700,25 +1700,25 @@
         <v>6.095474366845156</v>
       </c>
       <c r="Z12" t="n">
-        <v>-6.059626400783145</v>
+        <v>-6.05976092602964</v>
       </c>
       <c r="AA12" t="n">
-        <v>-10.27355341480174</v>
+        <v>-9.941084746438731</v>
       </c>
       <c r="AB12" t="n">
         <v>0.5296999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>29.30000000000056</v>
+        <v>29.55000000000057</v>
       </c>
       <c r="AD12" t="n">
-        <v>11.82500000000017</v>
+        <v>7.000000000000099</v>
       </c>
       <c r="AE12" t="n">
-        <v>55.22186344438512</v>
+        <v>55.22258443335886</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.8562969197081429</v>
+        <v>0.8568253369398349</v>
       </c>
     </row>
     <row r="13">
@@ -1728,34 +1728,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.20074211536915</v>
+        <v>43.20064551925992</v>
       </c>
       <c r="C13" t="n">
-        <v>22.41624113313177</v>
+        <v>22.41643167916964</v>
       </c>
       <c r="D13" t="n">
-        <v>-162.342266990354</v>
+        <v>-162.106992341613</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1312176213586265</v>
+        <v>0.1313232950919599</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0741071510204119</v>
+        <v>0.0739071254629932</v>
       </c>
       <c r="G13" t="n">
-        <v>9.737532398124175</v>
+        <v>9.657746796283586</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>32.22815680849499</v>
+        <v>32.22806122840211</v>
       </c>
       <c r="J13" t="n">
-        <v>16.77773218884022</v>
+        <v>16.77792168403846</v>
       </c>
       <c r="K13" t="n">
-        <v>-109.4739356840968</v>
+        <v>-109.2386767053668</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>-11</v>
       </c>
       <c r="U13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>36.25431815539128</v>
@@ -1804,25 +1804,25 @@
         <v>6.083915194446893</v>
       </c>
       <c r="Z13" t="n">
-        <v>-4.026161346896288</v>
+        <v>-4.026256926989163</v>
       </c>
       <c r="AA13" t="n">
-        <v>-16.17499119066323</v>
+        <v>-15.93973221193323</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.5322</v>
+        <v>0.5321</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.300000000000232</v>
+        <v>6.450000000000234</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.05000000000014</v>
+        <v>6.275000000000089</v>
       </c>
       <c r="AE13" t="n">
-        <v>26.56036091631478</v>
+        <v>26.56078766284003</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.051369402674538</v>
+        <v>1.051844183720561</v>
       </c>
     </row>
     <row r="14">
@@ -1832,34 +1832,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.18133211412314</v>
+        <v>44.18123840502284</v>
       </c>
       <c r="C14" t="n">
-        <v>22.93262032746734</v>
+        <v>22.93280500813477</v>
       </c>
       <c r="D14" t="n">
-        <v>-153.4896869391318</v>
+        <v>-153.261750456946</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1088607297024624</v>
+        <v>0.1089527794493589</v>
       </c>
       <c r="F14" t="n">
-        <v>0.057610175284056</v>
+        <v>0.0574264594491301</v>
       </c>
       <c r="G14" t="n">
-        <v>4.15772884404423</v>
+        <v>4.055456900203092</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>33.1984327737382</v>
+        <v>33.19834005028838</v>
       </c>
       <c r="J14" t="n">
-        <v>17.29126361082172</v>
+        <v>17.29144727299638</v>
       </c>
       <c r="K14" t="n">
-        <v>-100.6211556714227</v>
+        <v>-100.3932304048938</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>-11</v>
       </c>
       <c r="U14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>36.14446400980637</v>
@@ -1908,25 +1908,25 @@
         <v>6.085659926375054</v>
       </c>
       <c r="Z14" t="n">
-        <v>-2.946031236068165</v>
+        <v>-2.94612395951799</v>
       </c>
       <c r="AA14" t="n">
-        <v>-6.126728167856768</v>
+        <v>-5.898802901327841</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.5302</v>
+        <v>0.5301</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.05000000000028</v>
+        <v>10.20000000000029</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.850000000000097</v>
+        <v>2.900000000000041</v>
       </c>
       <c r="AE14" t="n">
-        <v>20.52386469458725</v>
+        <v>20.52426233570799</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.9097324719185735</v>
+        <v>0.9101296591828714</v>
       </c>
     </row>
     <row r="15">
@@ -1936,34 +1936,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.55088648247077</v>
+        <v>38.55079219270559</v>
       </c>
       <c r="C15" t="n">
-        <v>20.02595913611695</v>
+        <v>20.02614518008098</v>
       </c>
       <c r="D15" t="n">
-        <v>-144.2402779720392</v>
+        <v>-144.0099305441167</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1558330203596686</v>
+        <v>0.1559314493842624</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0817486975578732</v>
+        <v>0.08156111397549599</v>
       </c>
       <c r="G15" t="n">
-        <v>4.41573680016486</v>
+        <v>4.519707772190463</v>
       </c>
       <c r="H15" t="n">
         <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>27.6272092481629</v>
+        <v>27.62711595015548</v>
       </c>
       <c r="J15" t="n">
-        <v>14.40063232438297</v>
+        <v>14.40081734233581</v>
       </c>
       <c r="K15" t="n">
-        <v>-91.37312598142344</v>
+        <v>-91.14279761184284</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>-11</v>
       </c>
       <c r="U15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>32.85424059655975</v>
@@ -2010,25 +2010,25 @@
         <v>6.674325699698803</v>
       </c>
       <c r="Z15" t="n">
-        <v>-5.227031348396849</v>
+        <v>-5.227124646404263</v>
       </c>
       <c r="AA15" t="n">
-        <v>-11.50016738662885</v>
+        <v>-11.26983901704824</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.5303</v>
+        <v>0.5302</v>
       </c>
       <c r="AC15" t="n">
-        <v>25.55000000000051</v>
+        <v>25.70000000000051</v>
       </c>
       <c r="AD15" t="n">
-        <v>8.350000000000117</v>
+        <v>3.850000000000053</v>
       </c>
       <c r="AE15" t="n">
-        <v>49.18222979148408</v>
+        <v>49.18271155325095</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.338857260904575</v>
+        <v>1.339369497589558</v>
       </c>
     </row>
     <row r="16">
@@ -2038,34 +2038,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.22511913820046</v>
+        <v>38.22502421233919</v>
       </c>
       <c r="C16" t="n">
-        <v>19.86295080155531</v>
+        <v>19.86313807381932</v>
       </c>
       <c r="D16" t="n">
-        <v>-138.4157592187546</v>
+        <v>-138.1838486254579</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1083173113388462</v>
+        <v>0.1083919646451651</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0524553095719187</v>
+        <v>0.0522986453544074</v>
       </c>
       <c r="G16" t="n">
-        <v>7.600795801205139</v>
+        <v>7.611955730256021</v>
       </c>
       <c r="H16" t="n">
         <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>27.30486838724414</v>
+        <v>27.30477445983115</v>
       </c>
       <c r="J16" t="n">
-        <v>14.23852296219218</v>
+        <v>14.2387092016711</v>
       </c>
       <c r="K16" t="n">
-        <v>-85.54759471672391</v>
+        <v>-85.31569428282992</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>-11</v>
       </c>
       <c r="U16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>32.85424059655975</v>
@@ -2112,25 +2112,25 @@
         <v>6.674325699698803</v>
       </c>
       <c r="Z16" t="n">
-        <v>-5.549372209315607</v>
+        <v>-5.549466136728597</v>
       </c>
       <c r="AA16" t="n">
-        <v>-5.674636121929311</v>
+        <v>-5.442735688035327</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.5291</v>
+        <v>0.529</v>
       </c>
       <c r="AC16" t="n">
-        <v>30.60000000000058</v>
+        <v>30.80000000000058</v>
       </c>
       <c r="AD16" t="n">
-        <v>11.30000000000016</v>
+        <v>6.47500000000009</v>
       </c>
       <c r="AE16" t="n">
-        <v>50.85533442890113</v>
+        <v>50.8558244888232</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.104703289574161</v>
+        <v>1.105096094241787</v>
       </c>
     </row>
     <row r="17">
@@ -2140,34 +2140,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37.72268637264131</v>
+        <v>37.72257404038179</v>
       </c>
       <c r="C17" t="n">
-        <v>19.59691880767102</v>
+        <v>19.59714051348931</v>
       </c>
       <c r="D17" t="n">
-        <v>-143.7208007343562</v>
+        <v>-143.4461804391134</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1454423619770178</v>
+        <v>0.1455699396660625</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07469084009763979</v>
+        <v>0.07443924412726689</v>
       </c>
       <c r="G17" t="n">
-        <v>3.559538099392929</v>
+        <v>3.642574906592215</v>
       </c>
       <c r="H17" t="n">
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>26.80772030579101</v>
+        <v>26.80760915506334</v>
       </c>
       <c r="J17" t="n">
-        <v>13.97395810440844</v>
+        <v>13.97417858754432</v>
       </c>
       <c r="K17" t="n">
-        <v>-90.8531839166926</v>
+        <v>-90.57858398402983</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>-11</v>
       </c>
       <c r="U17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>32.44601800767987</v>
@@ -2214,25 +2214,25 @@
         <v>6.112236091087101</v>
       </c>
       <c r="Z17" t="n">
-        <v>-5.63829770188886</v>
+        <v>-5.638408852616525</v>
       </c>
       <c r="AA17" t="n">
-        <v>-12.18271439092076</v>
+        <v>-11.908114458258</v>
       </c>
       <c r="AB17" t="n">
         <v>0.5302</v>
       </c>
       <c r="AC17" t="n">
-        <v>27.15000000000053</v>
+        <v>27.35000000000053</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.800000000000109</v>
+        <v>3.225000000000044</v>
       </c>
       <c r="AE17" t="n">
-        <v>53.04381984867712</v>
+        <v>53.04440767691784</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.319395930864715</v>
+        <v>1.320075363306501</v>
       </c>
     </row>
     <row r="18">
@@ -2301,7 +2301,7 @@
         <v>-11</v>
       </c>
       <c r="U18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>37.32152643991071</v>
@@ -2328,7 +2328,7 @@
         <v>-0.1999999999998607</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.675000000000095</v>
+        <v>3.225000000000046</v>
       </c>
       <c r="AE18" t="n">
         <v>19.90785119135165</v>

--- a/SK Table S-3.xlsx
+++ b/SK Table S-3.xlsx
@@ -663,7 +663,7 @@
         <v>-11</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V2" t="n">
         <v>37.82717919288393</v>
@@ -690,7 +690,7 @@
         <v>12.75000000000032</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.725000000000053</v>
+        <v>7.675000000000109</v>
       </c>
       <c r="AE2" t="n">
         <v>31.71521907755971</v>
@@ -765,7 +765,7 @@
         <v>-11</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V3" t="n">
         <v>36.58617498367085</v>
@@ -792,7 +792,7 @@
         <v>8.750000000000266</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.9750000000000139</v>
+        <v>4.800000000000068</v>
       </c>
       <c r="AE3" t="n">
         <v>34.43028102363741</v>
@@ -865,7 +865,7 @@
         <v>-11</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V4" t="n">
         <v>35.80585754090839</v>
@@ -892,7 +892,7 @@
         <v>9.70000000000028</v>
       </c>
       <c r="AD4" t="n">
-        <v>4.500000000000064</v>
+        <v>8.325000000000118</v>
       </c>
       <c r="AE4" t="n">
         <v>29.81166059421821</v>
@@ -969,7 +969,7 @@
         <v>-11</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V5" t="n">
         <v>36.39292157338082</v>
@@ -996,7 +996,7 @@
         <v>5.50000000000022</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.300000000000033</v>
+        <v>6.000000000000085</v>
       </c>
       <c r="AE5" t="n">
         <v>22.49204132708667</v>
@@ -1069,7 +1069,7 @@
         <v>-11</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V6" t="n">
         <v>36.34234809959276</v>
@@ -1096,7 +1096,7 @@
         <v>8.950000000000269</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.800000000000026</v>
+        <v>5.60000000000008</v>
       </c>
       <c r="AE6" t="n">
         <v>31.54157864469823</v>
@@ -1173,7 +1173,7 @@
         <v>-11</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V7" t="n">
         <v>35.95958926191179</v>
@@ -1200,7 +1200,7 @@
         <v>14.30000000000035</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.975000000000085</v>
+        <v>10.07500000000014</v>
       </c>
       <c r="AE7" t="n">
         <v>38.45883262001144</v>
@@ -1277,7 +1277,7 @@
         <v>-11</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V8" t="n">
         <v>35.95958926191179</v>
@@ -1304,7 +1304,7 @@
         <v>20.80000000000044</v>
       </c>
       <c r="AD8" t="n">
-        <v>4.325000000000061</v>
+        <v>8.675000000000122</v>
       </c>
       <c r="AE8" t="n">
         <v>37.23624898910793</v>
@@ -1377,7 +1377,7 @@
         <v>-11</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V9" t="n">
         <v>36.83134462054363</v>
@@ -1404,7 +1404,7 @@
         <v>6.950000000000241</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.12500000000003</v>
+        <v>5.850000000000083</v>
       </c>
       <c r="AE9" t="n">
         <v>24.75684963036042</v>
@@ -1479,7 +1479,7 @@
         <v>-11</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V10" t="n">
         <v>32.44382026411881</v>
@@ -1506,7 +1506,7 @@
         <v>32.3000000000006</v>
       </c>
       <c r="AD10" t="n">
-        <v>8.050000000000114</v>
+        <v>13.00000000000018</v>
       </c>
       <c r="AE10" t="n">
         <v>52.31573468547009</v>
@@ -1583,7 +1583,7 @@
         <v>-11</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V11" t="n">
         <v>31.85711723561189</v>
@@ -1610,7 +1610,7 @@
         <v>27.45000000000053</v>
       </c>
       <c r="AD11" t="n">
-        <v>4.100000000000058</v>
+        <v>8.775000000000123</v>
       </c>
       <c r="AE11" t="n">
         <v>47.33980971023271</v>
@@ -1685,7 +1685,7 @@
         <v>-11</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V12" t="n">
         <v>32.44382026411881</v>
@@ -1712,7 +1712,7 @@
         <v>29.55000000000057</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.000000000000099</v>
+        <v>11.77500000000017</v>
       </c>
       <c r="AE12" t="n">
         <v>55.22258443335886</v>
@@ -1789,7 +1789,7 @@
         <v>-11</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V13" t="n">
         <v>36.25431815539128</v>
@@ -1816,7 +1816,7 @@
         <v>6.450000000000234</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.275000000000089</v>
+        <v>10.02500000000014</v>
       </c>
       <c r="AE13" t="n">
         <v>26.56078766284003</v>
@@ -1893,7 +1893,7 @@
         <v>-11</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V14" t="n">
         <v>36.14446400980637</v>
@@ -1920,7 +1920,7 @@
         <v>10.20000000000029</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.900000000000041</v>
+        <v>6.775000000000096</v>
       </c>
       <c r="AE14" t="n">
         <v>20.52426233570799</v>
@@ -1995,7 +1995,7 @@
         <v>-11</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V15" t="n">
         <v>32.85424059655975</v>
@@ -2022,7 +2022,7 @@
         <v>25.70000000000051</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.850000000000053</v>
+        <v>8.450000000000122</v>
       </c>
       <c r="AE15" t="n">
         <v>49.18271155325095</v>
@@ -2097,7 +2097,7 @@
         <v>-11</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V16" t="n">
         <v>32.85424059655975</v>
@@ -2124,7 +2124,7 @@
         <v>30.80000000000058</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.47500000000009</v>
+        <v>11.32500000000016</v>
       </c>
       <c r="AE16" t="n">
         <v>50.8558244888232</v>
@@ -2199,7 +2199,7 @@
         <v>-11</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V17" t="n">
         <v>32.44601800767987</v>
@@ -2226,7 +2226,7 @@
         <v>27.35000000000053</v>
       </c>
       <c r="AD17" t="n">
-        <v>3.225000000000044</v>
+        <v>7.875000000000114</v>
       </c>
       <c r="AE17" t="n">
         <v>53.04440767691784</v>
@@ -2301,7 +2301,7 @@
         <v>-11</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V18" t="n">
         <v>37.32152643991071</v>
@@ -2328,7 +2328,7 @@
         <v>-0.1999999999998607</v>
       </c>
       <c r="AD18" t="n">
-        <v>3.225000000000046</v>
+        <v>6.675000000000095</v>
       </c>
       <c r="AE18" t="n">
         <v>19.90785119135165</v>

--- a/SK Table S-3.xlsx
+++ b/SK Table S-3.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>theta_ve</t>
+          <t>theta_coral</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">

--- a/SK Table S-3.xlsx
+++ b/SK Table S-3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,22 +511,22 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>T_modeled</t>
+          <t>T_database</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>T_modeled_err</t>
+          <t>T_database_err</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>d18Osw_modeled</t>
+          <t>d18Osw_database</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>d18Osw_modeled_err</t>
+          <t>d18Osw_database_err</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -576,20 +576,25 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
+          <t>theta_coral_error</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
           <t>T_17O</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>T_17O_error</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>T_18O</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>T_18O_error</t>
         </is>
@@ -605,19 +610,19 @@
         <v>41.53519174081829</v>
       </c>
       <c r="C2" t="n">
-        <v>21.56186048900545</v>
+        <v>21.56186048900546</v>
       </c>
       <c r="D2" t="n">
         <v>-154.6748455745401</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0434689841782319</v>
+        <v>0.0434689841782345</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0249551477009469</v>
+        <v>0.0249551477009498</v>
       </c>
       <c r="G2" t="n">
-        <v>5.293279626594972</v>
+        <v>5.29327962659497</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -657,46 +662,49 @@
         <v>0.4362072875615581</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1000741948434021</v>
+        <v>0.2000371077414268</v>
       </c>
       <c r="T2" t="n">
         <v>-11</v>
       </c>
       <c r="U2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>37.82717919288393</v>
+        <v>37.39934859586378</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3755926057298211</v>
+        <v>0.4739695379586237</v>
       </c>
       <c r="X2" t="n">
-        <v>-101.7507159632451</v>
+        <v>-106.2355967982889</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.104129786815628</v>
+        <v>6.108510056878993</v>
       </c>
       <c r="Z2" t="n">
-        <v>-7.247054180942321</v>
+        <v>-6.819223583922174</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.0547568704458569</v>
+        <v>4.430123964597868</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.528</v>
+        <v>0.5273</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.75000000000032</v>
+        <v>0.001</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.675000000000109</v>
+        <v>11.4500000000003</v>
       </c>
       <c r="AE2" t="n">
+        <v>4.375000000000062</v>
+      </c>
+      <c r="AF2" t="n">
         <v>31.71521907755971</v>
       </c>
-      <c r="AF2" t="n">
-        <v>0.6773969626501639</v>
+      <c r="AG2" t="n">
+        <v>1.153358978542457</v>
       </c>
     </row>
     <row r="3">
@@ -759,46 +767,49 @@
         <v>0.3219431223803818</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1000417903667351</v>
+        <v>0.2000208984575906</v>
       </c>
       <c r="T3" t="n">
         <v>-11</v>
       </c>
       <c r="U3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>36.58617498367085</v>
+        <v>36.17925150911629</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3642673189173138</v>
+        <v>0.4631591871728915</v>
       </c>
       <c r="X3" t="n">
-        <v>-97.16428988247472</v>
+        <v>-101.5470736756612</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.091717575202486</v>
+        <v>6.096054682571302</v>
       </c>
       <c r="Z3" t="n">
-        <v>-6.705926206227559</v>
+        <v>-6.299002731672999</v>
       </c>
       <c r="AA3" t="n">
-        <v>-12.10303189782636</v>
+        <v>-7.720248104639893</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.5299</v>
+        <v>0.5293</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.750000000000266</v>
+        <v>0.001</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.800000000000068</v>
+        <v>6.15000000000023</v>
       </c>
       <c r="AE3" t="n">
+        <v>1.050000000000015</v>
+      </c>
+      <c r="AF3" t="n">
         <v>34.43028102363741</v>
       </c>
-      <c r="AF3" t="n">
-        <v>1.00590231422234</v>
+      <c r="AG3" t="n">
+        <v>1.490249837709683</v>
       </c>
     </row>
     <row r="4">
@@ -859,46 +870,49 @@
         <v>0.2587155072874164</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1000060220896697</v>
+        <v>0.2000030111128318</v>
       </c>
       <c r="T4" t="n">
         <v>-11</v>
       </c>
       <c r="U4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>35.80585754090839</v>
+        <v>35.41120699287558</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3583029786204861</v>
+        <v>0.4575865680614015</v>
       </c>
       <c r="X4" t="n">
-        <v>-94.29596924730176</v>
+        <v>-98.60874743799997</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.085247973255921</v>
+        <v>6.089579043556038</v>
       </c>
       <c r="Z4" t="n">
-        <v>-4.994211082639367</v>
+        <v>-4.599560534606553</v>
       </c>
       <c r="AA4" t="n">
-        <v>-11.32910926306963</v>
+        <v>-7.016331072371429</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.5303</v>
+        <v>0.5296</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.70000000000028</v>
+        <v>0.002</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.325000000000118</v>
+        <v>8.200000000000259</v>
       </c>
       <c r="AE4" t="n">
+        <v>5.275000000000075</v>
+      </c>
+      <c r="AF4" t="n">
         <v>29.81166059421821</v>
       </c>
-      <c r="AF4" t="n">
-        <v>0.804233978185664</v>
+      <c r="AG4" t="n">
+        <v>1.27470718124701</v>
       </c>
     </row>
     <row r="5">
@@ -963,46 +977,49 @@
         <v>0.5146542228238554</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1000364199379484</v>
+        <v>0.20001821245577</v>
       </c>
       <c r="T5" t="n">
         <v>-11</v>
       </c>
       <c r="U5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>36.39292157338082</v>
+        <v>35.99277038244213</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3610584480304624</v>
+        <v>0.4601498781755708</v>
       </c>
       <c r="X5" t="n">
-        <v>-95.58283839133352</v>
+        <v>-99.9276343519</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.088114332317625</v>
+        <v>6.092449657756251</v>
       </c>
       <c r="Z5" t="n">
-        <v>-3.674077665572213</v>
+        <v>-3.273926474633527</v>
       </c>
       <c r="AA5" t="n">
-        <v>-13.25020911647101</v>
+        <v>-8.90541315590454</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.5317</v>
+        <v>0.5308</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.50000000000022</v>
+        <v>0.002</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.000000000000085</v>
+        <v>4.600000000000207</v>
       </c>
       <c r="AE5" t="n">
+        <v>2.725000000000039</v>
+      </c>
+      <c r="AF5" t="n">
         <v>22.49204132708667</v>
       </c>
-      <c r="AF5" t="n">
-        <v>0.5263409020159315</v>
+      <c r="AG5" t="n">
+        <v>0.9748797439165457</v>
       </c>
     </row>
     <row r="6">
@@ -1063,46 +1080,49 @@
         <v>0.492693733921927</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1000067243002073</v>
+        <v>0.2000033622348826</v>
       </c>
       <c r="T6" t="n">
         <v>-11</v>
       </c>
       <c r="U6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>36.34234809959276</v>
+        <v>35.94268021705852</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3605913365886408</v>
+        <v>0.4597163429777993</v>
       </c>
       <c r="X6" t="n">
-        <v>-95.47131688198718</v>
+        <v>-99.81337787320044</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.087727523609868</v>
+        <v>6.092055915683079</v>
       </c>
       <c r="Z6" t="n">
-        <v>-5.666442914049867</v>
+        <v>-5.266775031515635</v>
       </c>
       <c r="AA6" t="n">
-        <v>-12.08746522559956</v>
+        <v>-7.745404234386299</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.5302</v>
+        <v>0.5295</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.950000000000269</v>
+        <v>0.001</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.60000000000008</v>
+        <v>7.000000000000242</v>
       </c>
       <c r="AE6" t="n">
+        <v>2.025000000000029</v>
+      </c>
+      <c r="AF6" t="n">
         <v>31.54157864469823</v>
       </c>
-      <c r="AF6" t="n">
-        <v>0.9704242672129055</v>
+      <c r="AG6" t="n">
+        <v>1.446004041776007</v>
       </c>
     </row>
     <row r="7">
@@ -1124,7 +1144,7 @@
         <v>0.002143732251549</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0099725659169569</v>
+        <v>0.009972565916955599</v>
       </c>
       <c r="G7" t="n">
         <v>8.67621189493755</v>
@@ -1167,46 +1187,49 @@
         <v>1.607305112747934</v>
       </c>
       <c r="S7" t="n">
-        <v>0.100000685845241</v>
+        <v>0.2000003429235025</v>
       </c>
       <c r="T7" t="n">
         <v>-11</v>
       </c>
       <c r="U7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>35.95958926191179</v>
+        <v>35.58306663603935</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3489634182142254</v>
+        <v>0.4490203864697832</v>
       </c>
       <c r="X7" t="n">
-        <v>-89.41180957093309</v>
+        <v>-93.5935373736001</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.075209580339846</v>
+        <v>6.079520462005695</v>
       </c>
       <c r="Z7" t="n">
-        <v>-5.602199939984985</v>
+        <v>-5.225677314112545</v>
       </c>
       <c r="AA7" t="n">
-        <v>-13.15596186618961</v>
+        <v>-8.974234063522601</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.5304</v>
+        <v>0.5298</v>
       </c>
       <c r="AC7" t="n">
-        <v>14.30000000000035</v>
+        <v>0.002</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.07500000000014</v>
+        <v>11.95000000000031</v>
       </c>
       <c r="AE7" t="n">
+        <v>7.075000000000101</v>
+      </c>
+      <c r="AF7" t="n">
         <v>38.45883262001144</v>
       </c>
-      <c r="AF7" t="n">
-        <v>0.5064978814169763</v>
+      <c r="AG7" t="n">
+        <v>1.002658005128779</v>
       </c>
     </row>
     <row r="8">
@@ -1219,7 +1242,7 @@
         <v>41.56727718194144</v>
       </c>
       <c r="C8" t="n">
-        <v>21.58780055706003</v>
+        <v>21.58780055706004</v>
       </c>
       <c r="D8" t="n">
         <v>-145.5456242283919</v>
@@ -1271,46 +1294,49 @@
         <v>1.607305112747934</v>
       </c>
       <c r="S8" t="n">
-        <v>0.100000685845241</v>
+        <v>0.2000003429235025</v>
       </c>
       <c r="T8" t="n">
         <v>-11</v>
       </c>
       <c r="U8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>35.95958926191179</v>
+        <v>35.58306663603935</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3489634182142254</v>
+        <v>0.4490203864697832</v>
       </c>
       <c r="X8" t="n">
-        <v>-89.41180957093309</v>
+        <v>-93.5935373736001</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.075209580339846</v>
+        <v>6.079520462005695</v>
       </c>
       <c r="Z8" t="n">
-        <v>-5.347716289665417</v>
+        <v>-4.971193663792977</v>
       </c>
       <c r="AA8" t="n">
-        <v>-3.266699203662071</v>
+        <v>0.9150285990049412</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.5286</v>
+        <v>0.5278</v>
       </c>
       <c r="AC8" t="n">
-        <v>20.80000000000044</v>
+        <v>0.002</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.675000000000122</v>
+        <v>19.95000000000043</v>
       </c>
       <c r="AE8" t="n">
+        <v>5.000000000000071</v>
+      </c>
+      <c r="AF8" t="n">
         <v>37.23624898910793</v>
       </c>
-      <c r="AF8" t="n">
-        <v>1.318082807637467</v>
+      <c r="AG8" t="n">
+        <v>1.810505724009118</v>
       </c>
     </row>
     <row r="9">
@@ -1371,46 +1397,49 @@
         <v>-0.0598442162893142</v>
       </c>
       <c r="S9" t="n">
-        <v>0.100002092345084</v>
+        <v>0.2000010461807506</v>
       </c>
       <c r="T9" t="n">
         <v>-11</v>
       </c>
       <c r="U9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>36.83134462054363</v>
+        <v>36.41287267478447</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3686796851166036</v>
+        <v>0.4673260008507895</v>
       </c>
       <c r="X9" t="n">
-        <v>-99.77119066249428</v>
+        <v>-104.2134391096781</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.097289953654306</v>
+        <v>6.101596667022496</v>
       </c>
       <c r="Z9" t="n">
-        <v>-5.222329363943118</v>
+        <v>-4.803857418183952</v>
       </c>
       <c r="AA9" t="n">
-        <v>-7.797668143702182</v>
+        <v>-3.35541969651841</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.5295</v>
+        <v>0.5286999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.950000000000241</v>
+        <v>0.001</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.850000000000083</v>
+        <v>5.900000000000226</v>
       </c>
       <c r="AE9" t="n">
+        <v>2.475000000000035</v>
+      </c>
+      <c r="AF9" t="n">
         <v>24.75684963036042</v>
       </c>
-      <c r="AF9" t="n">
-        <v>0.7143499266892377</v>
+      <c r="AG9" t="n">
+        <v>1.169903422611327</v>
       </c>
     </row>
     <row r="10">
@@ -1473,46 +1502,49 @@
         <v>0.9489880868345976</v>
       </c>
       <c r="S10" t="n">
-        <v>0.100995999124084</v>
+        <v>0.2004998549602268</v>
       </c>
       <c r="T10" t="n">
         <v>-11</v>
       </c>
       <c r="U10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>32.44382026411881</v>
+        <v>32.09205866592106</v>
       </c>
       <c r="W10" t="n">
-        <v>0.3975496618994611</v>
+        <v>0.4992305818144587</v>
       </c>
       <c r="X10" t="n">
-        <v>-78.71553359921535</v>
+        <v>-82.55043553419483</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.095474366845156</v>
+        <v>6.102561537891093</v>
       </c>
       <c r="Z10" t="n">
-        <v>-5.512545385027352</v>
+        <v>-5.160783786829597</v>
       </c>
       <c r="AA10" t="n">
-        <v>-5.34605662733334</v>
+        <v>-1.511154692353856</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.529</v>
+        <v>0.5283</v>
       </c>
       <c r="AC10" t="n">
-        <v>32.3000000000006</v>
+        <v>0.002</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.00000000000018</v>
+        <v>30.55000000000058</v>
       </c>
       <c r="AE10" t="n">
+        <v>9.400000000000132</v>
+      </c>
+      <c r="AF10" t="n">
         <v>52.31573468547009</v>
       </c>
-      <c r="AF10" t="n">
-        <v>1.362484751062027</v>
+      <c r="AG10" t="n">
+        <v>1.900014249400783</v>
       </c>
     </row>
     <row r="11">
@@ -1577,46 +1609,49 @@
         <v>0.5683919888466225</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2316670849389598</v>
+        <v>0.2892570452799987</v>
       </c>
       <c r="T11" t="n">
         <v>-11</v>
       </c>
       <c r="U11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>31.85711723561189</v>
+        <v>31.50598720915241</v>
       </c>
       <c r="W11" t="n">
-        <v>0.4913761608672757</v>
+        <v>0.5501332774997536</v>
       </c>
       <c r="X11" t="n">
-        <v>-78.00565628885181</v>
+        <v>-81.81424050712849</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.070320663306213</v>
+        <v>6.07564395087117</v>
       </c>
       <c r="Z11" t="n">
-        <v>-4.356923472259496</v>
+        <v>-4.005793445800009</v>
       </c>
       <c r="AA11" t="n">
-        <v>-10.09990005209716</v>
+        <v>-6.291315833820477</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.5304</v>
+        <v>0.5296</v>
       </c>
       <c r="AC11" t="n">
-        <v>27.45000000000053</v>
+        <v>0.002</v>
       </c>
       <c r="AD11" t="n">
-        <v>8.775000000000123</v>
+        <v>25.85000000000051</v>
       </c>
       <c r="AE11" t="n">
+        <v>4.550000000000065</v>
+      </c>
+      <c r="AF11" t="n">
         <v>47.33980971023271</v>
       </c>
-      <c r="AF11" t="n">
-        <v>1.894206004892027</v>
+      <c r="AG11" t="n">
+        <v>2.196281669178489</v>
       </c>
     </row>
     <row r="12">
@@ -1679,46 +1714,49 @@
         <v>0.9489880868345976</v>
       </c>
       <c r="S12" t="n">
-        <v>0.100995999124084</v>
+        <v>0.2004998549602268</v>
       </c>
       <c r="T12" t="n">
         <v>-11</v>
       </c>
       <c r="U12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>32.44382026411881</v>
+        <v>32.09205866592106</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3975496618994611</v>
+        <v>0.4992305818144587</v>
       </c>
       <c r="X12" t="n">
-        <v>-78.71553359921535</v>
+        <v>-82.55043553419483</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.095474366845156</v>
+        <v>6.102561537891093</v>
       </c>
       <c r="Z12" t="n">
-        <v>-6.05976092602964</v>
+        <v>-5.707999327831885</v>
       </c>
       <c r="AA12" t="n">
-        <v>-9.941084746438731</v>
+        <v>-6.106182811459249</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.5296999999999999</v>
+        <v>0.5291</v>
       </c>
       <c r="AC12" t="n">
-        <v>29.55000000000057</v>
+        <v>0.002</v>
       </c>
       <c r="AD12" t="n">
-        <v>11.77500000000017</v>
+        <v>26.70000000000052</v>
       </c>
       <c r="AE12" t="n">
+        <v>8.150000000000116</v>
+      </c>
+      <c r="AF12" t="n">
         <v>55.22258443335886</v>
       </c>
-      <c r="AF12" t="n">
-        <v>0.8568253369398349</v>
+      <c r="AG12" t="n">
+        <v>1.403687488992318</v>
       </c>
     </row>
     <row r="13">
@@ -1783,46 +1821,49 @@
         <v>0.9342006845586784</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1010984901813536</v>
+        <v>0.2005515014078659</v>
       </c>
       <c r="T13" t="n">
         <v>-11</v>
       </c>
       <c r="U13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>36.25431815539128</v>
+        <v>35.86346287428728</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3588343206995432</v>
+        <v>0.4576758906722489</v>
       </c>
       <c r="X13" t="n">
-        <v>-93.29894449343357</v>
+        <v>-97.58621586484396</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.083915194446893</v>
+        <v>6.088285108875829</v>
       </c>
       <c r="Z13" t="n">
-        <v>-4.026256926989163</v>
+        <v>-3.635401645885168</v>
       </c>
       <c r="AA13" t="n">
-        <v>-15.93973221193323</v>
+        <v>-11.65246084052285</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.5321</v>
+        <v>0.5313</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.450000000000234</v>
+        <v>0.003</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.02500000000014</v>
+        <v>4.950000000000212</v>
       </c>
       <c r="AE13" t="n">
+        <v>7.350000000000104</v>
+      </c>
+      <c r="AF13" t="n">
         <v>26.56078766284003</v>
       </c>
-      <c r="AF13" t="n">
-        <v>1.051844183720561</v>
+      <c r="AG13" t="n">
+        <v>1.509788997150338</v>
       </c>
     </row>
     <row r="14">
@@ -1887,46 +1928,49 @@
         <v>0.5376120410316583</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1000078999895032</v>
+        <v>0.2000039501117677</v>
       </c>
       <c r="T14" t="n">
         <v>-11</v>
       </c>
       <c r="U14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>36.14446400980637</v>
+        <v>35.74888192136427</v>
       </c>
       <c r="W14" t="n">
-        <v>0.3587472540647241</v>
+        <v>0.4580014689396421</v>
       </c>
       <c r="X14" t="n">
-        <v>-94.49442750356596</v>
+        <v>-98.81220931001168</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.085659926375054</v>
+        <v>6.089990496223851</v>
       </c>
       <c r="Z14" t="n">
-        <v>-2.94612395951799</v>
+        <v>-2.550541871075893</v>
       </c>
       <c r="AA14" t="n">
-        <v>-5.898802901327841</v>
+        <v>-1.581021094882132</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.5301</v>
+        <v>0.5286</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.20000000000029</v>
+        <v>0.003</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.775000000000096</v>
+        <v>10.65000000000029</v>
       </c>
       <c r="AE14" t="n">
+        <v>3.425000000000049</v>
+      </c>
+      <c r="AF14" t="n">
         <v>20.52426233570799</v>
       </c>
-      <c r="AF14" t="n">
-        <v>0.9101296591828714</v>
+      <c r="AG14" t="n">
+        <v>1.352976106658645</v>
       </c>
     </row>
     <row r="15">
@@ -1989,46 +2033,49 @@
         <v>1.041527204900287</v>
       </c>
       <c r="S15" t="n">
-        <v>0.100770018609694</v>
+        <v>0.2003861189069694</v>
       </c>
       <c r="T15" t="n">
         <v>-11</v>
       </c>
       <c r="U15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>32.85424059655975</v>
+        <v>32.50127293578657</v>
       </c>
       <c r="W15" t="n">
-        <v>0.8967145475448888</v>
+        <v>0.9959353742596022</v>
       </c>
       <c r="X15" t="n">
-        <v>-79.8729585947946</v>
+        <v>-83.74981959398298</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.674325699698803</v>
+        <v>6.720730742509127</v>
       </c>
       <c r="Z15" t="n">
-        <v>-5.227124646404263</v>
+        <v>-4.874156985631089</v>
       </c>
       <c r="AA15" t="n">
-        <v>-11.26983901704824</v>
+        <v>-7.39297801785986</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.5302</v>
+        <v>0.5296</v>
       </c>
       <c r="AC15" t="n">
-        <v>25.70000000000051</v>
+        <v>0.002</v>
       </c>
       <c r="AD15" t="n">
-        <v>8.450000000000122</v>
+        <v>23.40000000000047</v>
       </c>
       <c r="AE15" t="n">
+        <v>4.400000000000063</v>
+      </c>
+      <c r="AF15" t="n">
         <v>49.18271155325095</v>
       </c>
-      <c r="AF15" t="n">
-        <v>1.339369497589558</v>
+      <c r="AG15" t="n">
+        <v>1.867454152883766</v>
       </c>
     </row>
     <row r="16">
@@ -2091,46 +2138,49 @@
         <v>1.041527204900287</v>
       </c>
       <c r="S16" t="n">
-        <v>0.100770018609694</v>
+        <v>0.2003861189069694</v>
       </c>
       <c r="T16" t="n">
         <v>-11</v>
       </c>
       <c r="U16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>32.85424059655975</v>
+        <v>32.50127293578657</v>
       </c>
       <c r="W16" t="n">
-        <v>0.8967145475448888</v>
+        <v>0.9959353742596022</v>
       </c>
       <c r="X16" t="n">
-        <v>-79.8729585947946</v>
+        <v>-83.74981959398298</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.674325699698803</v>
+        <v>6.720730742509127</v>
       </c>
       <c r="Z16" t="n">
-        <v>-5.549466136728597</v>
+        <v>-5.196498475955423</v>
       </c>
       <c r="AA16" t="n">
-        <v>-5.442735688035327</v>
+        <v>-1.565874688846947</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.529</v>
+        <v>0.5283</v>
       </c>
       <c r="AC16" t="n">
-        <v>30.80000000000058</v>
+        <v>0.002</v>
       </c>
       <c r="AD16" t="n">
-        <v>11.32500000000016</v>
+        <v>29.10000000000056</v>
       </c>
       <c r="AE16" t="n">
+        <v>7.600000000000108</v>
+      </c>
+      <c r="AF16" t="n">
         <v>50.8558244888232</v>
       </c>
-      <c r="AF16" t="n">
-        <v>1.105096094241787</v>
+      <c r="AG16" t="n">
+        <v>1.638499570372744</v>
       </c>
     </row>
     <row r="17">
@@ -2193,46 +2243,49 @@
         <v>0.9630482716372716</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1014163849683412</v>
+        <v>0.2007119407012119</v>
       </c>
       <c r="T17" t="n">
         <v>-11</v>
       </c>
       <c r="U17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>32.44601800767987</v>
+        <v>32.09428821039046</v>
       </c>
       <c r="W17" t="n">
-        <v>0.4230002147600089</v>
+        <v>0.5244078265692451</v>
       </c>
       <c r="X17" t="n">
-        <v>-78.67046952577184</v>
+        <v>-82.50371408847812</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.112236091087101</v>
+        <v>6.120564375943877</v>
       </c>
       <c r="Z17" t="n">
-        <v>-5.638408852616525</v>
+        <v>-5.286679055327117</v>
       </c>
       <c r="AA17" t="n">
-        <v>-11.908114458258</v>
+        <v>-8.074869895551714</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.5302</v>
+        <v>0.5296</v>
       </c>
       <c r="AC17" t="n">
-        <v>27.35000000000053</v>
+        <v>0.001</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.875000000000114</v>
+        <v>24.55000000000049</v>
       </c>
       <c r="AE17" t="n">
+        <v>3.62500000000005</v>
+      </c>
+      <c r="AF17" t="n">
         <v>53.04440767691784</v>
       </c>
-      <c r="AF17" t="n">
-        <v>1.320075363306501</v>
+      <c r="AG17" t="n">
+        <v>1.85880205069347</v>
       </c>
     </row>
     <row r="18">
@@ -2254,7 +2307,7 @@
         <v>0.09995020359121259</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0510954486684904</v>
+        <v>0.0510954486684877</v>
       </c>
       <c r="G18" t="n">
         <v>5.180753601543485</v>
@@ -2295,46 +2348,49 @@
         <v>-0.08585535897502369</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1000001581743931</v>
+        <v>0.2000000790872435</v>
       </c>
       <c r="T18" t="n">
         <v>-11</v>
       </c>
       <c r="U18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>37.32152643991071</v>
+        <v>36.89322609679448</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3724762065763798</v>
+        <v>0.4709438223660527</v>
       </c>
       <c r="X18" t="n">
-        <v>-101.8992300095789</v>
+        <v>-106.3872241513941</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.10207802497882</v>
+        <v>6.106356412138809</v>
       </c>
       <c r="Z18" t="n">
-        <v>-4.623056299358268</v>
+        <v>-4.194755956242034</v>
       </c>
       <c r="AA18" t="n">
-        <v>-15.23465679265001</v>
+        <v>-10.74666265083479</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.5314</v>
+        <v>0.5306999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.1999999999998607</v>
+        <v>0.002</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.675000000000095</v>
+        <v>-1.699999999999882</v>
       </c>
       <c r="AE18" t="n">
+        <v>3.750000000000053</v>
+      </c>
+      <c r="AF18" t="n">
         <v>19.90785119135165</v>
       </c>
-      <c r="AF18" t="n">
-        <v>0.8684350962192582</v>
+      <c r="AG18" t="n">
+        <v>1.309776748090712</v>
       </c>
     </row>
   </sheetData>

--- a/SK Table S-3.xlsx
+++ b/SK Table S-3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,100 +501,115 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Lat</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Depth</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>T_measured</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>d18Osw_measured</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>T_database</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>T_database_err</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>d18Osw_database</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>d18Osw_database_err</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Dp17Osw</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Dp17Osw_err</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>d18O_equilibrium</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>d18O_equilibrium_err</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Dp17O_equilibrium</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Dp17O_equilibrium_err</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>d18O_offset</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Dp17O_offset</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>theta_coral</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>theta_coral_error</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>T_17O</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>T_17O_error</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>T_18O</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>T_18O_error</t>
         </is>
@@ -647,63 +662,72 @@
         </is>
       </c>
       <c r="N2" t="n">
+        <v>70.26733299999999</v>
+      </c>
+      <c r="O2" t="n">
+        <v>22.456167</v>
+      </c>
+      <c r="P2" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q2" t="n">
         <v>5.9</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>0.18</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
         <v>3.149959619575077</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="T2" t="n">
         <v>1.011894254731385</v>
       </c>
-      <c r="R2" t="n">
+      <c r="U2" t="n">
         <v>0.4362072875615581</v>
       </c>
-      <c r="S2" t="n">
+      <c r="V2" t="n">
         <v>0.2000371077414268</v>
       </c>
-      <c r="T2" t="n">
+      <c r="W2" t="n">
         <v>-11</v>
       </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
         <v>0</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>37.39934859586378</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Z2" t="n">
         <v>0.4739695379586237</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AA2" t="n">
         <v>-106.2355967982889</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AB2" t="n">
         <v>6.108510056878993</v>
       </c>
-      <c r="Z2" t="n">
-        <v>-6.819223583922174</v>
-      </c>
-      <c r="AA2" t="n">
+      <c r="AC2" t="n">
+        <v>-6.81922358392217</v>
+      </c>
+      <c r="AD2" t="n">
         <v>4.430123964597868</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AE2" t="n">
         <v>0.5273</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AF2" t="n">
         <v>0.001</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AG2" t="n">
         <v>11.4500000000003</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AH2" t="n">
         <v>4.375000000000062</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AI2" t="n">
         <v>31.71521907755971</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AJ2" t="n">
         <v>1.153358978542457</v>
       </c>
     </row>
@@ -753,62 +777,71 @@
           <t>cold-water coral</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>23.83535</v>
+      </c>
       <c r="O3" t="n">
+        <v>-89</v>
+      </c>
+      <c r="P3" t="n">
+        <v>558</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
         <v>0.17</v>
       </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
         <v>7.396926027039226</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="T3" t="n">
         <v>1.001972162957272</v>
       </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
         <v>0.3219431223803818</v>
       </c>
-      <c r="S3" t="n">
+      <c r="V3" t="n">
         <v>0.2000208984575906</v>
       </c>
-      <c r="T3" t="n">
+      <c r="W3" t="n">
         <v>-11</v>
       </c>
-      <c r="U3" t="n">
+      <c r="X3" t="n">
         <v>0</v>
       </c>
-      <c r="V3" t="n">
+      <c r="Y3" t="n">
         <v>36.17925150911629</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Z3" t="n">
         <v>0.4631591871728915</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AA3" t="n">
         <v>-101.5470736756612</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AB3" t="n">
         <v>6.096054682571302</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AC3" t="n">
         <v>-6.299002731672999</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AD3" t="n">
         <v>-7.720248104639893</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AE3" t="n">
         <v>0.5293</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AF3" t="n">
         <v>0.001</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AG3" t="n">
         <v>6.15000000000023</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AH3" t="n">
         <v>1.050000000000015</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AI3" t="n">
         <v>34.43028102363741</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AJ3" t="n">
         <v>1.490249837709683</v>
       </c>
     </row>
@@ -858,60 +891,69 @@
           <t>cold-water coral</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>-9.822867</v>
+      </c>
+      <c r="O4" t="n">
+        <v>12.773817</v>
+      </c>
       <c r="P4" t="n">
+        <v>374</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
         <v>10.17445563770063</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="T4" t="n">
         <v>1.000360836356271</v>
       </c>
-      <c r="R4" t="n">
+      <c r="U4" t="n">
         <v>0.2587155072874164</v>
       </c>
-      <c r="S4" t="n">
+      <c r="V4" t="n">
         <v>0.2000030111128318</v>
       </c>
-      <c r="T4" t="n">
+      <c r="W4" t="n">
         <v>-11</v>
       </c>
-      <c r="U4" t="n">
+      <c r="X4" t="n">
         <v>0</v>
       </c>
-      <c r="V4" t="n">
+      <c r="Y4" t="n">
         <v>35.41120699287558</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Z4" t="n">
         <v>0.4575865680614015</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AA4" t="n">
         <v>-98.60874743799997</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AB4" t="n">
         <v>6.089579043556038</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AC4" t="n">
         <v>-4.599560534606553</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AD4" t="n">
         <v>-7.016331072371429</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AE4" t="n">
         <v>0.5296</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AF4" t="n">
         <v>0.002</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AG4" t="n">
         <v>8.200000000000259</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AH4" t="n">
         <v>5.275000000000075</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AI4" t="n">
         <v>29.81166059421821</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AJ4" t="n">
         <v>1.27470718124701</v>
       </c>
     </row>
@@ -962,63 +1004,72 @@
         </is>
       </c>
       <c r="N5" t="n">
+        <v>51.449</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-11.752667</v>
+      </c>
+      <c r="P5" t="n">
+        <v>881</v>
+      </c>
+      <c r="Q5" t="n">
         <v>9</v>
       </c>
-      <c r="O5" t="n">
+      <c r="R5" t="n">
         <v>0.4</v>
       </c>
-      <c r="P5" t="n">
+      <c r="S5" t="n">
         <v>8.916203067396783</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="T5" t="n">
         <v>1.001069794785835</v>
       </c>
-      <c r="R5" t="n">
+      <c r="U5" t="n">
         <v>0.5146542228238554</v>
       </c>
-      <c r="S5" t="n">
+      <c r="V5" t="n">
         <v>0.20001821245577</v>
       </c>
-      <c r="T5" t="n">
+      <c r="W5" t="n">
         <v>-11</v>
       </c>
-      <c r="U5" t="n">
+      <c r="X5" t="n">
         <v>0</v>
       </c>
-      <c r="V5" t="n">
+      <c r="Y5" t="n">
         <v>35.99277038244213</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Z5" t="n">
         <v>0.4601498781755708</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AA5" t="n">
         <v>-99.9276343519</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AB5" t="n">
         <v>6.092449657756251</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AC5" t="n">
         <v>-3.273926474633527</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AD5" t="n">
         <v>-8.90541315590454</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AE5" t="n">
         <v>0.5308</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AF5" t="n">
         <v>0.002</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AG5" t="n">
         <v>4.600000000000207</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AH5" t="n">
         <v>2.725000000000039</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AI5" t="n">
         <v>22.49204132708667</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AJ5" t="n">
         <v>0.9748797439165457</v>
       </c>
     </row>
@@ -1068,60 +1119,69 @@
           <t>cold-water coral</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>53.515167</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-14.352667</v>
+      </c>
       <c r="P6" t="n">
+        <v>696</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
         <v>9.024453925766052</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="T6" t="n">
         <v>1.000226370278141</v>
       </c>
-      <c r="R6" t="n">
+      <c r="U6" t="n">
         <v>0.492693733921927</v>
       </c>
-      <c r="S6" t="n">
+      <c r="V6" t="n">
         <v>0.2000033622348826</v>
       </c>
-      <c r="T6" t="n">
+      <c r="W6" t="n">
         <v>-11</v>
       </c>
-      <c r="U6" t="n">
+      <c r="X6" t="n">
         <v>0</v>
       </c>
-      <c r="V6" t="n">
+      <c r="Y6" t="n">
         <v>35.94268021705852</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Z6" t="n">
         <v>0.4597163429777993</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AA6" t="n">
         <v>-99.81337787320044</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AB6" t="n">
         <v>6.092055915683079</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AC6" t="n">
         <v>-5.266775031515635</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AD6" t="n">
         <v>-7.745404234386299</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AE6" t="n">
         <v>0.5295</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AF6" t="n">
         <v>0.001</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AG6" t="n">
         <v>7.000000000000242</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AH6" t="n">
         <v>2.025000000000029</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AI6" t="n">
         <v>31.54157864469823</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AJ6" t="n">
         <v>1.446004041776007</v>
       </c>
     </row>
@@ -1135,7 +1195,7 @@
         <v>41.31008837041881</v>
       </c>
       <c r="C7" t="n">
-        <v>21.44450056945757</v>
+        <v>21.44450056945758</v>
       </c>
       <c r="D7" t="n">
         <v>-155.4372885601154</v>
@@ -1172,63 +1232,72 @@
         </is>
       </c>
       <c r="N7" t="n">
+        <v>41.289812</v>
+      </c>
+      <c r="O7" t="n">
+        <v>17.278115</v>
+      </c>
+      <c r="P7" t="n">
+        <v>573</v>
+      </c>
+      <c r="Q7" t="n">
         <v>13.5</v>
       </c>
-      <c r="O7" t="n">
+      <c r="R7" t="n">
         <v>1.16</v>
       </c>
-      <c r="P7" t="n">
+      <c r="S7" t="n">
         <v>15.14091500097467</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="T7" t="n">
         <v>1.000002636821688</v>
       </c>
-      <c r="R7" t="n">
+      <c r="U7" t="n">
         <v>1.607305112747934</v>
       </c>
-      <c r="S7" t="n">
+      <c r="V7" t="n">
         <v>0.2000003429235025</v>
       </c>
-      <c r="T7" t="n">
+      <c r="W7" t="n">
         <v>-11</v>
       </c>
-      <c r="U7" t="n">
+      <c r="X7" t="n">
         <v>0</v>
       </c>
-      <c r="V7" t="n">
+      <c r="Y7" t="n">
         <v>35.58306663603935</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Z7" t="n">
         <v>0.4490203864697832</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AA7" t="n">
         <v>-93.5935373736001</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AB7" t="n">
         <v>6.079520462005695</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AC7" t="n">
         <v>-5.225677314112545</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AD7" t="n">
         <v>-8.974234063522601</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AE7" t="n">
         <v>0.5298</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AF7" t="n">
         <v>0.002</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AG7" t="n">
         <v>11.95000000000031</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AH7" t="n">
         <v>7.075000000000101</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AI7" t="n">
         <v>38.45883262001144</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AJ7" t="n">
         <v>1.002658005128779</v>
       </c>
     </row>
@@ -1260,7 +1329,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>30.61187297224637</v>
+        <v>30.61187297224638</v>
       </c>
       <c r="J8" t="n">
         <v>15.95386036804655</v>
@@ -1279,63 +1348,72 @@
         </is>
       </c>
       <c r="N8" t="n">
+        <v>41.289812</v>
+      </c>
+      <c r="O8" t="n">
+        <v>17.278115</v>
+      </c>
+      <c r="P8" t="n">
+        <v>573</v>
+      </c>
+      <c r="Q8" t="n">
         <v>13.5</v>
       </c>
-      <c r="O8" t="n">
+      <c r="R8" t="n">
         <v>1.16</v>
       </c>
-      <c r="P8" t="n">
+      <c r="S8" t="n">
         <v>15.14091500097467</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="T8" t="n">
         <v>1.000002636821688</v>
       </c>
-      <c r="R8" t="n">
+      <c r="U8" t="n">
         <v>1.607305112747934</v>
       </c>
-      <c r="S8" t="n">
+      <c r="V8" t="n">
         <v>0.2000003429235025</v>
       </c>
-      <c r="T8" t="n">
+      <c r="W8" t="n">
         <v>-11</v>
       </c>
-      <c r="U8" t="n">
+      <c r="X8" t="n">
         <v>0</v>
       </c>
-      <c r="V8" t="n">
+      <c r="Y8" t="n">
         <v>35.58306663603935</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Z8" t="n">
         <v>0.4490203864697832</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AA8" t="n">
         <v>-93.5935373736001</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AB8" t="n">
         <v>6.079520462005695</v>
       </c>
-      <c r="Z8" t="n">
-        <v>-4.971193663792977</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AC8" t="n">
+        <v>-4.97119366379297</v>
+      </c>
+      <c r="AD8" t="n">
         <v>0.9150285990049412</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AE8" t="n">
         <v>0.5278</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AF8" t="n">
         <v>0.002</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AG8" t="n">
         <v>19.95000000000043</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AH8" t="n">
         <v>5.000000000000071</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AI8" t="n">
         <v>37.23624898910793</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AJ8" t="n">
         <v>1.810505724009118</v>
       </c>
     </row>
@@ -1385,60 +1463,69 @@
           <t>cold-water coral</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>-42.727</v>
+      </c>
+      <c r="O9" t="n">
+        <v>179.897</v>
+      </c>
       <c r="P9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
         <v>4.954848054246427</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="T9" t="n">
         <v>1.00060914618306</v>
       </c>
-      <c r="R9" t="n">
+      <c r="U9" t="n">
         <v>-0.0598442162893142</v>
       </c>
-      <c r="S9" t="n">
+      <c r="V9" t="n">
         <v>0.2000010461807506</v>
       </c>
-      <c r="T9" t="n">
+      <c r="W9" t="n">
         <v>-11</v>
       </c>
-      <c r="U9" t="n">
+      <c r="X9" t="n">
         <v>0</v>
       </c>
-      <c r="V9" t="n">
+      <c r="Y9" t="n">
         <v>36.41287267478447</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Z9" t="n">
         <v>0.4673260008507895</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AA9" t="n">
         <v>-104.2134391096781</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AB9" t="n">
         <v>6.101596667022496</v>
       </c>
-      <c r="Z9" t="n">
-        <v>-4.803857418183952</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="AC9" t="n">
+        <v>-4.803857418183956</v>
+      </c>
+      <c r="AD9" t="n">
         <v>-3.35541969651841</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AE9" t="n">
         <v>0.5286999999999999</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AF9" t="n">
         <v>0.001</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AG9" t="n">
         <v>5.900000000000226</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AH9" t="n">
         <v>2.475000000000035</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AI9" t="n">
         <v>24.75684963036042</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AJ9" t="n">
         <v>1.169903422611327</v>
       </c>
     </row>
@@ -1452,7 +1539,7 @@
         <v>37.84755433105605</v>
       </c>
       <c r="C10" t="n">
-        <v>19.66862080603288</v>
+        <v>19.66862080603287</v>
       </c>
       <c r="D10" t="n">
         <v>-136.9284473239851</v>
@@ -1488,62 +1575,71 @@
           <t>warm-water coral</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>16.957248</v>
+      </c>
       <c r="O10" t="n">
+        <v>-88.043581</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
         <v>1.2</v>
       </c>
-      <c r="P10" t="n">
+      <c r="S10" t="n">
         <v>27.23761571248373</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="T10" t="n">
         <v>1.311783206456589</v>
       </c>
-      <c r="R10" t="n">
+      <c r="U10" t="n">
         <v>0.9489880868345976</v>
       </c>
-      <c r="S10" t="n">
+      <c r="V10" t="n">
         <v>0.2004998549602268</v>
       </c>
-      <c r="T10" t="n">
+      <c r="W10" t="n">
         <v>-11</v>
       </c>
-      <c r="U10" t="n">
+      <c r="X10" t="n">
         <v>0</v>
       </c>
-      <c r="V10" t="n">
+      <c r="Y10" t="n">
         <v>32.09205866592106</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Z10" t="n">
         <v>0.4992305818144587</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AA10" t="n">
         <v>-82.55043553419483</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AB10" t="n">
         <v>6.102561537891093</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AC10" t="n">
         <v>-5.160783786829597</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AD10" t="n">
         <v>-1.511154692353856</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AE10" t="n">
         <v>0.5283</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AF10" t="n">
         <v>0.002</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AG10" t="n">
         <v>30.55000000000058</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AH10" t="n">
         <v>9.400000000000132</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AI10" t="n">
         <v>52.31573468547009</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AJ10" t="n">
         <v>1.900014249400783</v>
       </c>
     </row>
@@ -1594,63 +1690,72 @@
         </is>
       </c>
       <c r="N11" t="n">
+        <v>4.268056</v>
+      </c>
+      <c r="O11" t="n">
+        <v>72.935278</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
         <v>29.3</v>
       </c>
-      <c r="O11" t="n">
+      <c r="R11" t="n">
         <v>0.52</v>
       </c>
-      <c r="P11" t="n">
+      <c r="S11" t="n">
         <v>28.10890011472013</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="T11" t="n">
         <v>1.136879140313881</v>
       </c>
-      <c r="R11" t="n">
+      <c r="U11" t="n">
         <v>0.5683919888466225</v>
       </c>
-      <c r="S11" t="n">
+      <c r="V11" t="n">
         <v>0.2892570452799987</v>
       </c>
-      <c r="T11" t="n">
+      <c r="W11" t="n">
         <v>-11</v>
       </c>
-      <c r="U11" t="n">
+      <c r="X11" t="n">
         <v>0</v>
       </c>
-      <c r="V11" t="n">
+      <c r="Y11" t="n">
         <v>31.50598720915241</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Z11" t="n">
         <v>0.5501332774997536</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AA11" t="n">
         <v>-81.81424050712849</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AB11" t="n">
         <v>6.07564395087117</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AC11" t="n">
         <v>-4.005793445800009</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AD11" t="n">
         <v>-6.291315833820477</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AE11" t="n">
         <v>0.5296</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AF11" t="n">
         <v>0.002</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AG11" t="n">
         <v>25.85000000000051</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AH11" t="n">
         <v>4.550000000000065</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AI11" t="n">
         <v>47.33980971023271</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AJ11" t="n">
         <v>2.196281669178489</v>
       </c>
     </row>
@@ -1700,62 +1805,71 @@
           <t>warm-water coral</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>16.957248</v>
+      </c>
       <c r="O12" t="n">
+        <v>-88.043581</v>
+      </c>
+      <c r="P12" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
         <v>1.2</v>
       </c>
-      <c r="P12" t="n">
+      <c r="S12" t="n">
         <v>27.23761571248373</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="T12" t="n">
         <v>1.311783206456589</v>
       </c>
-      <c r="R12" t="n">
+      <c r="U12" t="n">
         <v>0.9489880868345976</v>
       </c>
-      <c r="S12" t="n">
+      <c r="V12" t="n">
         <v>0.2004998549602268</v>
       </c>
-      <c r="T12" t="n">
+      <c r="W12" t="n">
         <v>-11</v>
       </c>
-      <c r="U12" t="n">
+      <c r="X12" t="n">
         <v>0</v>
       </c>
-      <c r="V12" t="n">
+      <c r="Y12" t="n">
         <v>32.09205866592106</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Z12" t="n">
         <v>0.4992305818144587</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AA12" t="n">
         <v>-82.55043553419483</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AB12" t="n">
         <v>6.102561537891093</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AC12" t="n">
         <v>-5.707999327831885</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AD12" t="n">
         <v>-6.106182811459249</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AE12" t="n">
         <v>0.5291</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AF12" t="n">
         <v>0.002</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AG12" t="n">
         <v>26.70000000000052</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AH12" t="n">
         <v>8.150000000000116</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AI12" t="n">
         <v>55.22258443335886</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AJ12" t="n">
         <v>1.403687488992318</v>
       </c>
     </row>
@@ -1806,63 +1920,72 @@
         </is>
       </c>
       <c r="N13" t="n">
+        <v>34.999667</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-7.075167</v>
+      </c>
+      <c r="P13" t="n">
+        <v>738</v>
+      </c>
+      <c r="Q13" t="n">
         <v>10.3</v>
       </c>
-      <c r="O13" t="n">
+      <c r="R13" t="n">
         <v>0.47</v>
       </c>
-      <c r="P13" t="n">
+      <c r="S13" t="n">
         <v>11.16328319322238</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="T13" t="n">
         <v>1.00495239978773</v>
       </c>
-      <c r="R13" t="n">
+      <c r="U13" t="n">
         <v>0.9342006845586784</v>
       </c>
-      <c r="S13" t="n">
+      <c r="V13" t="n">
         <v>0.2005515014078659</v>
       </c>
-      <c r="T13" t="n">
+      <c r="W13" t="n">
         <v>-11</v>
       </c>
-      <c r="U13" t="n">
+      <c r="X13" t="n">
         <v>0</v>
       </c>
-      <c r="V13" t="n">
+      <c r="Y13" t="n">
         <v>35.86346287428728</v>
       </c>
-      <c r="W13" t="n">
+      <c r="Z13" t="n">
         <v>0.4576758906722489</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AA13" t="n">
         <v>-97.58621586484396</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AB13" t="n">
         <v>6.088285108875829</v>
       </c>
-      <c r="Z13" t="n">
-        <v>-3.635401645885168</v>
-      </c>
-      <c r="AA13" t="n">
+      <c r="AC13" t="n">
+        <v>-3.635401645885167</v>
+      </c>
+      <c r="AD13" t="n">
         <v>-11.65246084052285</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AE13" t="n">
         <v>0.5313</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AF13" t="n">
         <v>0.003</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AG13" t="n">
         <v>4.950000000000212</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AH13" t="n">
         <v>7.350000000000104</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AI13" t="n">
         <v>26.56078766284003</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AJ13" t="n">
         <v>1.509788997150338</v>
       </c>
     </row>
@@ -1885,7 +2008,7 @@
         <v>0.1089527794493589</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0574264594491301</v>
+        <v>0.0574264594491302</v>
       </c>
       <c r="G14" t="n">
         <v>4.055456900203092</v>
@@ -1913,63 +2036,72 @@
         </is>
       </c>
       <c r="N14" t="n">
+        <v>30.124612</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-42.119351</v>
+      </c>
+      <c r="P14" t="n">
+        <v>806.0599999999999</v>
+      </c>
+      <c r="Q14" t="n">
         <v>10.02</v>
       </c>
-      <c r="O14" t="n">
+      <c r="R14" t="n">
         <v>0.6</v>
       </c>
-      <c r="P14" t="n">
+      <c r="S14" t="n">
         <v>9.97909751644683</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="T14" t="n">
         <v>1.000314176808703</v>
       </c>
-      <c r="R14" t="n">
+      <c r="U14" t="n">
         <v>0.5376120410316583</v>
       </c>
-      <c r="S14" t="n">
+      <c r="V14" t="n">
         <v>0.2000039501117677</v>
       </c>
-      <c r="T14" t="n">
+      <c r="W14" t="n">
         <v>-11</v>
       </c>
-      <c r="U14" t="n">
+      <c r="X14" t="n">
         <v>0</v>
       </c>
-      <c r="V14" t="n">
+      <c r="Y14" t="n">
         <v>35.74888192136427</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Z14" t="n">
         <v>0.4580014689396421</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AA14" t="n">
         <v>-98.81220931001168</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AB14" t="n">
         <v>6.089990496223851</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AC14" t="n">
         <v>-2.550541871075893</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AD14" t="n">
         <v>-1.581021094882132</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AE14" t="n">
         <v>0.5286</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AF14" t="n">
         <v>0.003</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AG14" t="n">
         <v>10.65000000000029</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AH14" t="n">
         <v>3.425000000000049</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AI14" t="n">
         <v>20.52426233570799</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AJ14" t="n">
         <v>1.352976106658645</v>
       </c>
     </row>
@@ -2020,61 +2152,70 @@
         </is>
       </c>
       <c r="N15" t="n">
+        <v>28.816484</v>
+      </c>
+      <c r="O15" t="n">
+        <v>48.775413</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
         <v>26</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="n">
         <v>25.8369534778595</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="T15" t="n">
         <v>3.505993602116302</v>
       </c>
-      <c r="R15" t="n">
+      <c r="U15" t="n">
         <v>1.041527204900287</v>
       </c>
-      <c r="S15" t="n">
+      <c r="V15" t="n">
         <v>0.2003861189069694</v>
       </c>
-      <c r="T15" t="n">
+      <c r="W15" t="n">
         <v>-11</v>
       </c>
-      <c r="U15" t="n">
+      <c r="X15" t="n">
         <v>0</v>
       </c>
-      <c r="V15" t="n">
+      <c r="Y15" t="n">
         <v>32.50127293578657</v>
       </c>
-      <c r="W15" t="n">
+      <c r="Z15" t="n">
         <v>0.9959353742596022</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AA15" t="n">
         <v>-83.74981959398298</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AB15" t="n">
         <v>6.720730742509127</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AC15" t="n">
         <v>-4.874156985631089</v>
       </c>
-      <c r="AA15" t="n">
-        <v>-7.39297801785986</v>
-      </c>
-      <c r="AB15" t="n">
+      <c r="AD15" t="n">
+        <v>-7.392978017859861</v>
+      </c>
+      <c r="AE15" t="n">
         <v>0.5296</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AF15" t="n">
         <v>0.002</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AG15" t="n">
         <v>23.40000000000047</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AH15" t="n">
         <v>4.400000000000063</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AI15" t="n">
         <v>49.18271155325095</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AJ15" t="n">
         <v>1.867454152883766</v>
       </c>
     </row>
@@ -2125,61 +2266,70 @@
         </is>
       </c>
       <c r="N16" t="n">
+        <v>28.816484</v>
+      </c>
+      <c r="O16" t="n">
+        <v>48.775413</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
         <v>26</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="n">
         <v>25.8369534778595</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="T16" t="n">
         <v>3.505993602116302</v>
       </c>
-      <c r="R16" t="n">
+      <c r="U16" t="n">
         <v>1.041527204900287</v>
       </c>
-      <c r="S16" t="n">
+      <c r="V16" t="n">
         <v>0.2003861189069694</v>
       </c>
-      <c r="T16" t="n">
+      <c r="W16" t="n">
         <v>-11</v>
       </c>
-      <c r="U16" t="n">
+      <c r="X16" t="n">
         <v>0</v>
       </c>
-      <c r="V16" t="n">
+      <c r="Y16" t="n">
         <v>32.50127293578657</v>
       </c>
-      <c r="W16" t="n">
+      <c r="Z16" t="n">
         <v>0.9959353742596022</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AA16" t="n">
         <v>-83.74981959398298</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AB16" t="n">
         <v>6.720730742509127</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AC16" t="n">
         <v>-5.196498475955423</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AD16" t="n">
         <v>-1.565874688846947</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AE16" t="n">
         <v>0.5283</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AF16" t="n">
         <v>0.002</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AG16" t="n">
         <v>29.10000000000056</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AH16" t="n">
         <v>7.600000000000108</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AI16" t="n">
         <v>50.8558244888232</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AJ16" t="n">
         <v>1.638499570372744</v>
       </c>
     </row>
@@ -2229,62 +2379,71 @@
           <t>warm-water coral</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>17.387784</v>
+      </c>
       <c r="O17" t="n">
+        <v>-87.939841</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
         <v>1.2</v>
       </c>
-      <c r="P17" t="n">
+      <c r="S17" t="n">
         <v>27.29264664808909</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="T17" t="n">
         <v>1.424226242592546</v>
       </c>
-      <c r="R17" t="n">
+      <c r="U17" t="n">
         <v>0.9630482716372716</v>
       </c>
-      <c r="S17" t="n">
+      <c r="V17" t="n">
         <v>0.2007119407012119</v>
       </c>
-      <c r="T17" t="n">
+      <c r="W17" t="n">
         <v>-11</v>
       </c>
-      <c r="U17" t="n">
+      <c r="X17" t="n">
         <v>0</v>
       </c>
-      <c r="V17" t="n">
+      <c r="Y17" t="n">
         <v>32.09428821039046</v>
       </c>
-      <c r="W17" t="n">
+      <c r="Z17" t="n">
         <v>0.5244078265692451</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AA17" t="n">
         <v>-82.50371408847812</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AB17" t="n">
         <v>6.120564375943877</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AC17" t="n">
         <v>-5.286679055327117</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AD17" t="n">
         <v>-8.074869895551714</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AE17" t="n">
         <v>0.5296</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AF17" t="n">
         <v>0.001</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AG17" t="n">
         <v>24.55000000000049</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AH17" t="n">
         <v>3.62500000000005</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AI17" t="n">
         <v>53.04440767691784</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AJ17" t="n">
         <v>1.85880205069347</v>
       </c>
     </row>
@@ -2295,7 +2454,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>43.67605487814655</v>
+        <v>43.67605487814654</v>
       </c>
       <c r="C18" t="n">
         <v>22.65434614329349</v>
@@ -2335,61 +2494,70 @@
         </is>
       </c>
       <c r="N18" t="n">
+        <v>-44.498</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-174.817</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1386</v>
+      </c>
+      <c r="Q18" t="n">
         <v>3.8</v>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="n">
         <v>3.016210616426932</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="T18" t="n">
         <v>1.000080261621265</v>
       </c>
-      <c r="R18" t="n">
+      <c r="U18" t="n">
         <v>-0.08585535897502369</v>
       </c>
-      <c r="S18" t="n">
+      <c r="V18" t="n">
         <v>0.2000000790872435</v>
       </c>
-      <c r="T18" t="n">
+      <c r="W18" t="n">
         <v>-11</v>
       </c>
-      <c r="U18" t="n">
+      <c r="X18" t="n">
         <v>0</v>
       </c>
-      <c r="V18" t="n">
+      <c r="Y18" t="n">
         <v>36.89322609679448</v>
       </c>
-      <c r="W18" t="n">
+      <c r="Z18" t="n">
         <v>0.4709438223660527</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AA18" t="n">
         <v>-106.3872241513941</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AB18" t="n">
         <v>6.106356412138809</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AC18" t="n">
         <v>-4.194755956242034</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AD18" t="n">
         <v>-10.74666265083479</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AE18" t="n">
         <v>0.5306999999999999</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AF18" t="n">
         <v>0.002</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AG18" t="n">
         <v>-1.699999999999882</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AH18" t="n">
         <v>3.750000000000053</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AI18" t="n">
         <v>19.90785119135165</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AJ18" t="n">
         <v>1.309776748090712</v>
       </c>
     </row>

--- a/SK Table S-3.xlsx
+++ b/SK Table S-3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1514,7 +1514,7 @@
         <v>0.5286999999999999</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AG9" t="n">
         <v>5.900000000000226</v>
@@ -2559,6 +2559,118 @@
       </c>
       <c r="AJ18" t="n">
         <v>1.309776748090712</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>JBC03</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>36.55425919582633</v>
+      </c>
+      <c r="C19" t="n">
+        <v>19.00560630826331</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-129</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>13</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>27.77602417336175</v>
+      </c>
+      <c r="J19" t="n">
+        <v>14.48316032056755</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-86.47633988485381</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Porites porites</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>warm-water coral</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="O19" t="n">
+        <v>76.33</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>26</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>26.42412988980611</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.945655700817794</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.5173335040964955</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.2010646373540952</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-11</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>31.82876978311629</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.6433674951674675</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-83.24461894290636</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>6.227649710479503</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>-4.052745609754538</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>-3.231720941947458</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.5288</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>27.05000000000052</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>13.00000000000019</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>45.67193296229271</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>4.077291802518573</v>
       </c>
     </row>
   </sheetData>

--- a/SK Table S-3.xlsx
+++ b/SK Table S-3.xlsx
@@ -2609,7 +2609,7 @@
         <v>24.83</v>
       </c>
       <c r="O19" t="n">
-        <v>76.33</v>
+        <v>-76.33</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2619,16 +2619,16 @@
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>26.42412988980611</v>
+        <v>26.09108594426913</v>
       </c>
       <c r="T19" t="n">
-        <v>1.945655700817794</v>
+        <v>2.213314914687195</v>
       </c>
       <c r="U19" t="n">
-        <v>0.5173335040964955</v>
+        <v>0.9030744779539061</v>
       </c>
       <c r="V19" t="n">
-        <v>0.2010646373540952</v>
+        <v>0.2058647621108258</v>
       </c>
       <c r="W19" t="n">
         <v>-11</v>
@@ -2637,40 +2637,40 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.82876978311629</v>
+        <v>32.30132450903534</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.6433674951674675</v>
+        <v>0.709616778316672</v>
       </c>
       <c r="AA19" t="n">
-        <v>-83.24461894290636</v>
+        <v>-83.53073868456207</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.227649710479503</v>
+        <v>6.295290411898642</v>
       </c>
       <c r="AC19" t="n">
-        <v>-4.052745609754538</v>
+        <v>-4.525300335673592</v>
       </c>
       <c r="AD19" t="n">
-        <v>-3.231720941947458</v>
+        <v>-2.945601200291748</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.5288</v>
+        <v>0.5286999999999999</v>
       </c>
       <c r="AF19" t="n">
         <v>0.004</v>
       </c>
       <c r="AG19" t="n">
-        <v>27.05000000000052</v>
+        <v>27.40000000000053</v>
       </c>
       <c r="AH19" t="n">
-        <v>13.00000000000019</v>
+        <v>13.05000000000019</v>
       </c>
       <c r="AI19" t="n">
-        <v>45.67193296229271</v>
+        <v>47.68664842029654</v>
       </c>
       <c r="AJ19" t="n">
-        <v>4.077291802518573</v>
+        <v>4.152226089428979</v>
       </c>
     </row>
   </sheetData>

--- a/SK Table S-3.xlsx
+++ b/SK Table S-3.xlsx
@@ -1974,7 +1974,7 @@
         <v>0.5313</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AG13" t="n">
         <v>4.950000000000212</v>
@@ -2587,13 +2587,13 @@
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>27.77602417336175</v>
+        <v>28.61922903083041</v>
       </c>
       <c r="J19" t="n">
-        <v>14.48316032056755</v>
+        <v>14.91710663152568</v>
       </c>
       <c r="K19" t="n">
-        <v>-86.47633988485381</v>
+        <v>-91.81922204437144</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -2649,28 +2649,28 @@
         <v>6.295290411898642</v>
       </c>
       <c r="AC19" t="n">
-        <v>-4.525300335673592</v>
+        <v>-3.682095478204928</v>
       </c>
       <c r="AD19" t="n">
-        <v>-2.945601200291748</v>
+        <v>-8.288483359809376</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.5286999999999999</v>
+        <v>0.5303</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="AG19" t="n">
-        <v>27.40000000000053</v>
+        <v>21.80000000000045</v>
       </c>
       <c r="AH19" t="n">
-        <v>13.05000000000019</v>
+        <v>12.27500000000017</v>
       </c>
       <c r="AI19" t="n">
-        <v>47.68664842029654</v>
+        <v>43.42956783020713</v>
       </c>
       <c r="AJ19" t="n">
-        <v>4.152226089428979</v>
+        <v>4.043614784149298</v>
       </c>
     </row>
   </sheetData>

--- a/SK Table S-3.xlsx
+++ b/SK Table S-3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AK19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,20 +596,25 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>theta_coral_unique</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>T_17O</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>T_17O_error</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>T_18O</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>T_18O_error</t>
         </is>
@@ -719,15 +724,18 @@
         <v>0.001</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.4500000000003</v>
+        <v>0.5295</v>
       </c>
       <c r="AH2" t="n">
-        <v>4.375000000000062</v>
+        <v>13.10000000000033</v>
       </c>
       <c r="AI2" t="n">
+        <v>4.150000000000059</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>31.71521907755971</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>1.153358978542457</v>
       </c>
     </row>
@@ -833,15 +841,18 @@
         <v>0.001</v>
       </c>
       <c r="AG3" t="n">
-        <v>6.15000000000023</v>
+        <v>0.5293</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.050000000000015</v>
+        <v>7.500000000000249</v>
       </c>
       <c r="AI3" t="n">
+        <v>1.075000000000015</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>34.43028102363741</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>1.490249837709683</v>
       </c>
     </row>
@@ -945,15 +956,18 @@
         <v>0.002</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.200000000000259</v>
+        <v>0.5293</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.275000000000075</v>
+        <v>9.250000000000274</v>
       </c>
       <c r="AI4" t="n">
+        <v>5.100000000000072</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>29.81166059421821</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
         <v>1.27470718124701</v>
       </c>
     </row>
@@ -1061,15 +1075,18 @@
         <v>0.002</v>
       </c>
       <c r="AG5" t="n">
-        <v>4.600000000000207</v>
+        <v>0.5293</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.725000000000039</v>
+        <v>5.45000000000022</v>
       </c>
       <c r="AI5" t="n">
+        <v>2.650000000000038</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>22.49204132708667</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
         <v>0.9748797439165457</v>
       </c>
     </row>
@@ -1173,15 +1190,18 @@
         <v>0.001</v>
       </c>
       <c r="AG6" t="n">
-        <v>7.000000000000242</v>
+        <v>0.5293</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.025000000000029</v>
+        <v>8.200000000000259</v>
       </c>
       <c r="AI6" t="n">
+        <v>2.000000000000028</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>31.54157864469823</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
         <v>1.446004041776007</v>
       </c>
     </row>
@@ -1289,15 +1309,18 @@
         <v>0.002</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.95000000000031</v>
+        <v>0.5293</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.075000000000101</v>
+        <v>13.25000000000033</v>
       </c>
       <c r="AI7" t="n">
+        <v>6.825000000000097</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>38.45883262001144</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
         <v>1.002658005128779</v>
       </c>
     </row>
@@ -1405,15 +1428,18 @@
         <v>0.002</v>
       </c>
       <c r="AG8" t="n">
-        <v>19.95000000000043</v>
+        <v>0.5294</v>
       </c>
       <c r="AH8" t="n">
-        <v>5.000000000000071</v>
+        <v>21.15000000000044</v>
       </c>
       <c r="AI8" t="n">
+        <v>4.825000000000069</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>37.23624898910793</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AK8" t="n">
         <v>1.810505724009118</v>
       </c>
     </row>
@@ -1514,18 +1540,21 @@
         <v>0.5286999999999999</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.900000000000226</v>
+        <v>0.5294</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.475000000000035</v>
+        <v>7.100000000000243</v>
       </c>
       <c r="AI9" t="n">
+        <v>2.400000000000034</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>24.75684963036042</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AK9" t="n">
         <v>1.169903422611327</v>
       </c>
     </row>
@@ -1631,15 +1660,18 @@
         <v>0.002</v>
       </c>
       <c r="AG10" t="n">
-        <v>30.55000000000058</v>
+        <v>0.5294</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.400000000000132</v>
+        <v>32.1000000000006</v>
       </c>
       <c r="AI10" t="n">
+        <v>8.975000000000126</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>52.31573468547009</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AK10" t="n">
         <v>1.900014249400783</v>
       </c>
     </row>
@@ -1747,15 +1779,18 @@
         <v>0.002</v>
       </c>
       <c r="AG11" t="n">
-        <v>25.85000000000051</v>
+        <v>0.5293</v>
       </c>
       <c r="AH11" t="n">
-        <v>4.550000000000065</v>
+        <v>27.00000000000053</v>
       </c>
       <c r="AI11" t="n">
+        <v>4.450000000000067</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>47.33980971023271</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AK11" t="n">
         <v>2.196281669178489</v>
       </c>
     </row>
@@ -1861,15 +1896,18 @@
         <v>0.002</v>
       </c>
       <c r="AG12" t="n">
-        <v>26.70000000000052</v>
+        <v>0.5294</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.150000000000116</v>
+        <v>28.65000000000055</v>
       </c>
       <c r="AI12" t="n">
+        <v>7.775000000000112</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>55.22258443335886</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AK12" t="n">
         <v>1.403687488992318</v>
       </c>
     </row>
@@ -1974,18 +2012,21 @@
         <v>0.5313</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AG13" t="n">
-        <v>4.950000000000212</v>
+        <v>0.5292</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.350000000000104</v>
+        <v>5.650000000000222</v>
       </c>
       <c r="AI13" t="n">
+        <v>7.200000000000102</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>26.56078766284003</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AK13" t="n">
         <v>1.509788997150338</v>
       </c>
     </row>
@@ -2093,15 +2134,18 @@
         <v>0.003</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.65000000000029</v>
+        <v>0.5294</v>
       </c>
       <c r="AH14" t="n">
-        <v>3.425000000000049</v>
+        <v>11.3500000000003</v>
       </c>
       <c r="AI14" t="n">
+        <v>3.300000000000047</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>20.52426233570799</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AK14" t="n">
         <v>1.352976106658645</v>
       </c>
     </row>
@@ -2207,15 +2251,18 @@
         <v>0.002</v>
       </c>
       <c r="AG15" t="n">
-        <v>23.40000000000047</v>
+        <v>0.5293</v>
       </c>
       <c r="AH15" t="n">
-        <v>4.400000000000063</v>
+        <v>24.7500000000005</v>
       </c>
       <c r="AI15" t="n">
+        <v>4.300000000000063</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>49.18271155325095</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AK15" t="n">
         <v>1.867454152883766</v>
       </c>
     </row>
@@ -2321,15 +2368,18 @@
         <v>0.002</v>
       </c>
       <c r="AG16" t="n">
-        <v>29.10000000000056</v>
+        <v>0.5294</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.600000000000108</v>
+        <v>30.65000000000057</v>
       </c>
       <c r="AI16" t="n">
+        <v>7.250000000000107</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>50.8558244888232</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AK16" t="n">
         <v>1.638499570372744</v>
       </c>
     </row>
@@ -2435,15 +2485,18 @@
         <v>0.001</v>
       </c>
       <c r="AG17" t="n">
-        <v>24.55000000000049</v>
+        <v>0.5293</v>
       </c>
       <c r="AH17" t="n">
-        <v>3.62500000000005</v>
+        <v>26.05000000000051</v>
       </c>
       <c r="AI17" t="n">
+        <v>3.550000000000047</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>53.04440767691784</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AK17" t="n">
         <v>1.85880205069347</v>
       </c>
     </row>
@@ -2549,15 +2602,18 @@
         <v>0.002</v>
       </c>
       <c r="AG18" t="n">
-        <v>-1.699999999999882</v>
+        <v>0.5293</v>
       </c>
       <c r="AH18" t="n">
-        <v>3.750000000000053</v>
+        <v>-0.6499999999998671</v>
       </c>
       <c r="AI18" t="n">
+        <v>3.650000000000052</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>19.90785119135165</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AK18" t="n">
         <v>1.309776748090712</v>
       </c>
     </row>
@@ -2661,15 +2717,18 @@
         <v>0.005</v>
       </c>
       <c r="AG19" t="n">
-        <v>21.80000000000045</v>
+        <v>0.5293</v>
       </c>
       <c r="AH19" t="n">
-        <v>12.27500000000017</v>
+        <v>22.95000000000047</v>
       </c>
       <c r="AI19" t="n">
+        <v>11.92500000000017</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>43.42956783020713</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AK19" t="n">
         <v>4.043614784149298</v>
       </c>
     </row>

--- a/SK Table S-3.xlsx
+++ b/SK Table S-3.xlsx
@@ -1540,7 +1540,7 @@
         <v>0.5286999999999999</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AG9" t="n">
         <v>0.5294</v>

--- a/SK Table S-3.xlsx
+++ b/SK Table S-3.xlsx
@@ -1540,7 +1540,7 @@
         <v>0.5286999999999999</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AG9" t="n">
         <v>0.5294</v>
